--- a/doc/Modbus_Table_Uppsala.xlsx
+++ b/doc/Modbus_Table_Uppsala.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20390"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Q:\Freia\freia-drop\08 Equipment\Sauer Compressor\Emailed_docs\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3C82D28-F106-4F7B-B398-46CF788A4D82}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="27470" windowHeight="10980" firstSheet="4" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="27465" windowHeight="10980"/>
   </bookViews>
   <sheets>
     <sheet name="Pressures 1000-13FF" sheetId="1" r:id="rId1"/>
@@ -23,17 +17,17 @@
     <sheet name="Modes and menue 2400-25FF" sheetId="8" r:id="rId8"/>
     <sheet name="Timer,DisplayService 2600-27FF" sheetId="9" r:id="rId9"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Konrad Gajewski</author>
   </authors>
   <commentList>
-    <comment ref="I19" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000001000000}">
+    <comment ref="I19" authorId="0">
       <text>
         <r>
           <rPr>
@@ -62,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4342" uniqueCount="907">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4345" uniqueCount="910">
   <si>
     <t>FIELDBUS REGISTER TABLE ecc 4.0</t>
   </si>
@@ -3237,11 +3231,66 @@
   <si>
     <t>TT511</t>
   </si>
+  <si>
+    <t>This works:</t>
+  </si>
+  <si>
+    <r>
+      <t>02</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="3"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 06 2403 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="9"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">03e8 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>73b7</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="9"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">   </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="3"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Set Hysteresis</t>
+    </r>
+  </si>
+  <si>
+    <t>The reply is the same as the sent command</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="_-* #,##0.00\ &quot;€&quot;_-;\-* #,##0.00\ &quot;€&quot;_-;_-* &quot;-&quot;??\ &quot;€&quot;_-;_-@_-"/>
   </numFmts>
@@ -3847,7 +3896,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="21" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="550">
+  <cellXfs count="551">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -5354,6 +5403,15 @@
     <xf numFmtId="0" fontId="21" fillId="6" borderId="31" xfId="5" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="21" fillId="6" borderId="29" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="6" borderId="0" xfId="5" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -5383,23 +5441,17 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="6" borderId="29" xfId="5" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="6" borderId="0" xfId="5" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Bad" xfId="1" builtinId="27"/>
     <cellStyle name="Good" xfId="5" builtinId="26"/>
-    <cellStyle name="Monétaire 2" xfId="3" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="Monétaire 2" xfId="3"/>
     <cellStyle name="Neutral" xfId="2" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="4" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
+    <cellStyle name="Normal 2" xfId="4"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -5457,7 +5509,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -5490,26 +5542,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -5542,23 +5577,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -5734,30 +5752,30 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N58"/>
   <sheetViews>
-    <sheetView showWhiteSpace="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N7" sqref="N7"/>
+    <sheetView tabSelected="1" showWhiteSpace="0" topLeftCell="A37" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E61" sqref="E61"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.81640625" customWidth="1"/>
-    <col min="2" max="2" width="19.453125" hidden="1" customWidth="1"/>
-    <col min="3" max="3" width="19.1796875" hidden="1" customWidth="1"/>
-    <col min="4" max="5" width="21.54296875" customWidth="1"/>
-    <col min="6" max="6" width="12.453125" hidden="1" customWidth="1"/>
-    <col min="7" max="7" width="12.81640625" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="18.7265625" hidden="1" customWidth="1"/>
-    <col min="9" max="9" width="13.453125" customWidth="1"/>
-    <col min="10" max="10" width="13.54296875" customWidth="1"/>
-    <col min="11" max="11" width="19.26953125" customWidth="1"/>
-    <col min="12" max="12" width="24.81640625" customWidth="1"/>
-    <col min="13" max="13" width="33.26953125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="16.85546875" customWidth="1"/>
+    <col min="2" max="2" width="19.42578125" hidden="1" customWidth="1"/>
+    <col min="3" max="3" width="19.140625" hidden="1" customWidth="1"/>
+    <col min="4" max="5" width="21.5703125" customWidth="1"/>
+    <col min="6" max="6" width="12.42578125" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="12.85546875" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="18.7109375" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="13.42578125" customWidth="1"/>
+    <col min="10" max="10" width="13.5703125" customWidth="1"/>
+    <col min="11" max="11" width="19.28515625" customWidth="1"/>
+    <col min="12" max="12" width="24.85546875" customWidth="1"/>
+    <col min="13" max="13" width="33.28515625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:14" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A1" s="47"/>
       <c r="B1" s="46"/>
       <c r="C1" s="1"/>
@@ -5772,7 +5790,7 @@
       <c r="L1" s="1"/>
       <c r="N1" s="1"/>
     </row>
-    <row r="2" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:14" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A2" s="45"/>
       <c r="B2" s="44"/>
       <c r="C2" s="1"/>
@@ -5804,7 +5822,7 @@
       <c r="L3" s="1"/>
       <c r="N3" s="1"/>
     </row>
-    <row r="4" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:14" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A4" s="31"/>
       <c r="B4" s="6"/>
       <c r="C4" s="6"/>
@@ -5819,23 +5837,23 @@
       <c r="L4" s="1"/>
       <c r="N4" s="1"/>
     </row>
-    <row r="5" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="536"/>
-      <c r="B5" s="536"/>
-      <c r="C5" s="536"/>
-      <c r="D5" s="536"/>
-      <c r="E5" s="536"/>
-      <c r="F5" s="536"/>
-      <c r="G5" s="536"/>
-      <c r="H5" s="536"/>
-      <c r="I5" s="536"/>
-      <c r="J5" s="536"/>
-      <c r="K5" s="536"/>
-      <c r="L5" s="537"/>
+    <row r="5" spans="1:14" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A5" s="539"/>
+      <c r="B5" s="539"/>
+      <c r="C5" s="539"/>
+      <c r="D5" s="539"/>
+      <c r="E5" s="539"/>
+      <c r="F5" s="539"/>
+      <c r="G5" s="539"/>
+      <c r="H5" s="539"/>
+      <c r="I5" s="539"/>
+      <c r="J5" s="539"/>
+      <c r="K5" s="539"/>
+      <c r="L5" s="540"/>
       <c r="M5" s="49"/>
       <c r="N5" s="30"/>
     </row>
-    <row r="6" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:14" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A6" s="32" t="s">
         <v>2</v>
       </c>
@@ -5879,7 +5897,7 @@
         <v>901</v>
       </c>
     </row>
-    <row r="7" spans="1:14" ht="56.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:14" ht="56.1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="33" t="s">
         <v>15</v>
       </c>
@@ -5923,7 +5941,7 @@
         <v>891</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:14" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A8" s="34" t="s">
         <v>22</v>
       </c>
@@ -5965,7 +5983,7 @@
       </c>
       <c r="N8" s="1"/>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:14" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A9" s="35" t="s">
         <v>25</v>
       </c>
@@ -6007,7 +6025,7 @@
       </c>
       <c r="N9" s="4"/>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:14" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A10" s="35" t="s">
         <v>28</v>
       </c>
@@ -6049,7 +6067,7 @@
       </c>
       <c r="N10" s="4"/>
     </row>
-    <row r="11" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:14" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A11" s="279" t="s">
         <v>31</v>
       </c>
@@ -6091,7 +6109,7 @@
       </c>
       <c r="N11" s="1"/>
     </row>
-    <row r="12" spans="1:14" ht="57.65" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:14" ht="57.6" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="282" t="s">
         <v>35</v>
       </c>
@@ -6135,7 +6153,7 @@
         <v>892</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:14" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A13" s="289" t="s">
         <v>25</v>
       </c>
@@ -6176,7 +6194,7 @@
         <v>875</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:14" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A14" s="289" t="s">
         <v>28</v>
       </c>
@@ -6217,7 +6235,7 @@
         <v>876</v>
       </c>
     </row>
-    <row r="15" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:14" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A15" s="37" t="s">
         <v>31</v>
       </c>
@@ -6258,7 +6276,7 @@
         <v>865</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:14" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A16" s="38" t="s">
         <v>39</v>
       </c>
@@ -6302,7 +6320,7 @@
         <v>889</v>
       </c>
     </row>
-    <row r="17" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:14" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A17" s="37" t="s">
         <v>31</v>
       </c>
@@ -6344,7 +6362,7 @@
       </c>
       <c r="N17" s="525"/>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:14" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A18" s="33" t="s">
         <v>40</v>
       </c>
@@ -6388,7 +6406,7 @@
         <v>890</v>
       </c>
     </row>
-    <row r="19" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:14" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A19" s="37" t="s">
         <v>31</v>
       </c>
@@ -6430,7 +6448,7 @@
       </c>
       <c r="N19" s="525"/>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:14" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A20" s="39" t="s">
         <v>43</v>
       </c>
@@ -6474,7 +6492,7 @@
         <v>886</v>
       </c>
     </row>
-    <row r="21" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:14" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A21" s="37" t="s">
         <v>31</v>
       </c>
@@ -6516,7 +6534,7 @@
       </c>
       <c r="N21" s="525"/>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:14" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A22" s="39" t="s">
         <v>45</v>
       </c>
@@ -6560,7 +6578,7 @@
         <v>887</v>
       </c>
     </row>
-    <row r="23" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:14" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A23" s="37" t="s">
         <v>31</v>
       </c>
@@ -6602,7 +6620,7 @@
       </c>
       <c r="N23" s="525"/>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:14" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A24" s="39" t="s">
         <v>47</v>
       </c>
@@ -6646,7 +6664,7 @@
         <v>888</v>
       </c>
     </row>
-    <row r="25" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:14" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A25" s="37" t="s">
         <v>31</v>
       </c>
@@ -6688,7 +6706,7 @@
       </c>
       <c r="N25" s="525"/>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:14" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A26" s="40" t="s">
         <v>50</v>
       </c>
@@ -6730,7 +6748,7 @@
       </c>
       <c r="N26" s="525"/>
     </row>
-    <row r="27" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:14" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A27" s="37" t="s">
         <v>31</v>
       </c>
@@ -6772,7 +6790,7 @@
       </c>
       <c r="N27" s="525"/>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:14" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A28" s="41" t="s">
         <v>51</v>
       </c>
@@ -6816,7 +6834,7 @@
         <v>893</v>
       </c>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29" s="36" t="s">
         <v>25</v>
       </c>
@@ -6858,7 +6876,7 @@
       </c>
       <c r="N29" s="525"/>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A30" s="36" t="s">
         <v>28</v>
       </c>
@@ -6900,7 +6918,7 @@
       </c>
       <c r="N30" s="525"/>
     </row>
-    <row r="31" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="37" t="s">
         <v>31</v>
       </c>
@@ -6942,7 +6960,7 @@
       </c>
       <c r="N31" s="525"/>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A32" s="40" t="s">
         <v>54</v>
       </c>
@@ -6984,7 +7002,7 @@
       </c>
       <c r="N32" s="525"/>
     </row>
-    <row r="33" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="37" t="s">
         <v>31</v>
       </c>
@@ -7026,7 +7044,7 @@
       </c>
       <c r="N33" s="525"/>
     </row>
-    <row r="34" spans="1:14" ht="26" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A34" s="41" t="s">
         <v>56</v>
       </c>
@@ -7068,7 +7086,7 @@
       </c>
       <c r="N34" s="525"/>
     </row>
-    <row r="35" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="37" t="s">
         <v>31</v>
       </c>
@@ -7110,7 +7128,7 @@
       </c>
       <c r="N35" s="525"/>
     </row>
-    <row r="36" spans="1:14" ht="26" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A36" s="42" t="s">
         <v>58</v>
       </c>
@@ -7152,7 +7170,7 @@
       </c>
       <c r="N36" s="525"/>
     </row>
-    <row r="37" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="37" t="s">
         <v>31</v>
       </c>
@@ -7194,7 +7212,7 @@
       </c>
       <c r="N37" s="525"/>
     </row>
-    <row r="38" spans="1:14" ht="39" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A38" s="41" t="s">
         <v>62</v>
       </c>
@@ -7236,7 +7254,7 @@
       </c>
       <c r="N38" s="525"/>
     </row>
-    <row r="39" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="37" t="s">
         <v>31</v>
       </c>
@@ -7278,7 +7296,7 @@
       </c>
       <c r="N39" s="525"/>
     </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A40" s="42" t="s">
         <v>64</v>
       </c>
@@ -7322,7 +7340,7 @@
         <v>895</v>
       </c>
     </row>
-    <row r="41" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="37" t="s">
         <v>31</v>
       </c>
@@ -7364,7 +7382,7 @@
       </c>
       <c r="N41" s="525"/>
     </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A42" s="41" t="s">
         <v>67</v>
       </c>
@@ -7406,7 +7424,7 @@
       </c>
       <c r="N42" s="525"/>
     </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A43" s="36" t="s">
         <v>31</v>
       </c>
@@ -7448,7 +7466,7 @@
       </c>
       <c r="N43" s="525"/>
     </row>
-    <row r="44" spans="1:14" ht="26" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A44" s="41" t="s">
         <v>68</v>
       </c>
@@ -7490,7 +7508,7 @@
       </c>
       <c r="N44" s="525"/>
     </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A45" s="36" t="s">
         <v>31</v>
       </c>
@@ -7532,15 +7550,15 @@
       </c>
       <c r="N45" s="525"/>
     </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B47" s="272" t="s">
         <v>1</v>
       </c>
       <c r="C47" s="263"/>
       <c r="D47" s="263"/>
     </row>
-    <row r="48" spans="1:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B48" s="538" t="s">
+    <row r="48" spans="1:14" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B48" s="541" t="s">
         <v>14</v>
       </c>
       <c r="C48" s="263"/>
@@ -7549,33 +7567,33 @@
       </c>
       <c r="E48" s="263"/>
     </row>
-    <row r="49" spans="2:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B49" s="539"/>
+    <row r="49" spans="2:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B49" s="542"/>
       <c r="C49" s="251"/>
-      <c r="D49" s="538" t="s">
+      <c r="D49" s="541" t="s">
         <v>14</v>
       </c>
       <c r="E49" s="263"/>
     </row>
-    <row r="50" spans="2:5" s="501" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B50" s="539"/>
-      <c r="D50" s="539"/>
-    </row>
-    <row r="51" spans="2:5" s="501" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B51" s="539"/>
-      <c r="D51" s="539"/>
-    </row>
-    <row r="52" spans="2:5" s="501" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B52" s="540"/>
-      <c r="D52" s="539"/>
-    </row>
-    <row r="53" spans="2:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="50" spans="2:10" s="501" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B50" s="542"/>
+      <c r="D50" s="542"/>
+    </row>
+    <row r="51" spans="2:10" s="501" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B51" s="542"/>
+      <c r="D51" s="542"/>
+    </row>
+    <row r="52" spans="2:10" s="501" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B52" s="543"/>
+      <c r="D52" s="542"/>
+    </row>
+    <row r="53" spans="2:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B53" s="251"/>
       <c r="C53" s="251"/>
-      <c r="D53" s="540"/>
+      <c r="D53" s="543"/>
       <c r="E53" s="501"/>
     </row>
-    <row r="54" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="54" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B54" s="252" t="s">
         <v>72</v>
       </c>
@@ -7583,7 +7601,7 @@
       <c r="D54" s="501"/>
       <c r="E54" s="501"/>
     </row>
-    <row r="55" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="55" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B55" s="273" t="s">
         <v>73</v>
       </c>
@@ -7593,23 +7611,32 @@
       </c>
       <c r="E55" s="501"/>
     </row>
-    <row r="56" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="56" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B56" s="251"/>
       <c r="C56" s="252"/>
       <c r="D56" s="273" t="s">
         <v>73</v>
       </c>
       <c r="E56" s="501"/>
-    </row>
-    <row r="57" spans="2:5" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="I56" s="550" t="s">
+        <v>907</v>
+      </c>
+      <c r="J56" s="273" t="s">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="57" spans="2:10" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B57" s="251"/>
       <c r="C57" s="51" t="s">
         <v>71</v>
       </c>
       <c r="D57" s="501"/>
       <c r="E57" s="252"/>
-    </row>
-    <row r="58" spans="2:5" ht="88.5" x14ac:dyDescent="0.35">
+      <c r="J57" t="s">
+        <v>909</v>
+      </c>
+    </row>
+    <row r="58" spans="2:10" ht="90" x14ac:dyDescent="0.25">
       <c r="D58" s="501"/>
       <c r="E58" s="51" t="s">
         <v>71</v>
@@ -7627,36 +7654,36 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:O84"/>
   <sheetViews>
     <sheetView topLeftCell="A58" zoomScaleNormal="100" zoomScalePageLayoutView="80" workbookViewId="0">
       <selection activeCell="R78" sqref="R78"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.54296875" customWidth="1"/>
-    <col min="2" max="2" width="19.453125" hidden="1" customWidth="1"/>
-    <col min="3" max="3" width="19.54296875" hidden="1" customWidth="1"/>
-    <col min="4" max="4" width="21.81640625" customWidth="1"/>
+    <col min="1" max="1" width="20.5703125" customWidth="1"/>
+    <col min="2" max="2" width="19.42578125" hidden="1" customWidth="1"/>
+    <col min="3" max="3" width="19.5703125" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="21.85546875" customWidth="1"/>
     <col min="5" max="5" width="22" customWidth="1"/>
-    <col min="6" max="6" width="13.453125" hidden="1" customWidth="1"/>
-    <col min="7" max="7" width="12.1796875" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="17.81640625" hidden="1" customWidth="1"/>
-    <col min="9" max="9" width="13.453125" customWidth="1"/>
-    <col min="10" max="10" width="13.81640625" customWidth="1"/>
-    <col min="11" max="11" width="21.453125" customWidth="1"/>
-    <col min="12" max="12" width="26.54296875" customWidth="1"/>
-    <col min="15" max="15" width="10.81640625" style="549"/>
+    <col min="6" max="6" width="13.42578125" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="12.140625" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="17.85546875" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="13.42578125" customWidth="1"/>
+    <col min="10" max="10" width="13.85546875" customWidth="1"/>
+    <col min="11" max="11" width="21.42578125" customWidth="1"/>
+    <col min="12" max="12" width="26.5703125" customWidth="1"/>
+    <col min="15" max="15" width="10.85546875" style="538"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A2" s="541"/>
-      <c r="B2" s="541"/>
-      <c r="C2" s="541"/>
-      <c r="D2" s="541"/>
-      <c r="E2" s="541"/>
+    <row r="2" spans="1:15" ht="14.45" x14ac:dyDescent="0.35">
+      <c r="A2" s="544"/>
+      <c r="B2" s="544"/>
+      <c r="C2" s="544"/>
+      <c r="D2" s="544"/>
+      <c r="E2" s="544"/>
       <c r="F2" s="79"/>
       <c r="G2" s="79"/>
       <c r="H2" s="79"/>
@@ -7665,7 +7692,7 @@
       <c r="K2" s="79"/>
       <c r="L2" s="79"/>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:15" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A3" s="79"/>
       <c r="B3" s="79"/>
       <c r="C3" s="79"/>
@@ -7681,13 +7708,13 @@
       <c r="K3" s="79"/>
       <c r="L3" s="79"/>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A4" s="541"/>
-      <c r="B4" s="541"/>
-      <c r="C4" s="541"/>
-      <c r="D4" s="541"/>
-      <c r="E4" s="541"/>
-      <c r="F4" s="541"/>
+    <row r="4" spans="1:15" ht="14.45" x14ac:dyDescent="0.35">
+      <c r="A4" s="544"/>
+      <c r="B4" s="544"/>
+      <c r="C4" s="544"/>
+      <c r="D4" s="544"/>
+      <c r="E4" s="544"/>
+      <c r="F4" s="544"/>
       <c r="G4" s="80"/>
       <c r="H4" s="79"/>
       <c r="I4" s="79"/>
@@ -7695,7 +7722,7 @@
       <c r="K4" s="79"/>
       <c r="L4" s="79"/>
     </row>
-    <row r="5" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A5" s="80"/>
       <c r="B5" s="80"/>
       <c r="C5" s="80"/>
@@ -7709,21 +7736,21 @@
       <c r="K5" s="79"/>
       <c r="L5" s="79"/>
     </row>
-    <row r="6" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="536"/>
-      <c r="B6" s="536"/>
-      <c r="C6" s="536"/>
-      <c r="D6" s="536"/>
-      <c r="E6" s="536"/>
-      <c r="F6" s="536"/>
-      <c r="G6" s="536"/>
-      <c r="H6" s="536"/>
-      <c r="I6" s="536"/>
-      <c r="J6" s="536"/>
-      <c r="K6" s="536"/>
-      <c r="L6" s="542"/>
-    </row>
-    <row r="7" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A6" s="539"/>
+      <c r="B6" s="539"/>
+      <c r="C6" s="539"/>
+      <c r="D6" s="539"/>
+      <c r="E6" s="539"/>
+      <c r="F6" s="539"/>
+      <c r="G6" s="539"/>
+      <c r="H6" s="539"/>
+      <c r="I6" s="539"/>
+      <c r="J6" s="539"/>
+      <c r="K6" s="539"/>
+      <c r="L6" s="545"/>
+    </row>
+    <row r="7" spans="1:15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A7" s="81" t="s">
         <v>75</v>
       </c>
@@ -7770,7 +7797,7 @@
         <v>901</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:15" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A8" s="89" t="s">
         <v>76</v>
       </c>
@@ -7814,11 +7841,11 @@
       <c r="N8" s="531" t="s">
         <v>855</v>
       </c>
-      <c r="O8" s="549" t="s">
+      <c r="O8" s="538" t="s">
         <v>902</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:15" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A9" s="82" t="s">
         <v>22</v>
       </c>
@@ -7863,7 +7890,7 @@
         <v>856</v>
       </c>
     </row>
-    <row r="10" spans="1:15" ht="25" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:15" ht="24.95" x14ac:dyDescent="0.35">
       <c r="A10" s="83" t="s">
         <v>83</v>
       </c>
@@ -7908,7 +7935,7 @@
         <v>857</v>
       </c>
     </row>
-    <row r="11" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A11" s="84" t="s">
         <v>31</v>
       </c>
@@ -7950,7 +7977,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:15" ht="26" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:15" ht="26.1" x14ac:dyDescent="0.35">
       <c r="A12" s="86" t="s">
         <v>86</v>
       </c>
@@ -7995,7 +8022,7 @@
         <v>854</v>
       </c>
     </row>
-    <row r="13" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A13" s="84" t="s">
         <v>31</v>
       </c>
@@ -8037,7 +8064,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="14" spans="1:15" ht="26" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:15" ht="26.1" x14ac:dyDescent="0.35">
       <c r="A14" s="87" t="s">
         <v>88</v>
       </c>
@@ -8082,7 +8109,7 @@
         <v>854</v>
       </c>
     </row>
-    <row r="15" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A15" s="84" t="s">
         <v>31</v>
       </c>
@@ -8124,7 +8151,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="16" spans="1:15" ht="26" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:15" ht="26.1" x14ac:dyDescent="0.35">
       <c r="A16" s="87" t="s">
         <v>89</v>
       </c>
@@ -8169,7 +8196,7 @@
         <v>854</v>
       </c>
     </row>
-    <row r="17" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A17" s="84" t="s">
         <v>31</v>
       </c>
@@ -8214,7 +8241,7 @@
         <v>854</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:15" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A18" s="86" t="s">
         <v>92</v>
       </c>
@@ -8304,7 +8331,7 @@
         <v>854</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:15" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A20" s="85" t="s">
         <v>95</v>
       </c>
@@ -8349,7 +8376,7 @@
         <v>854</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:15" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A21" s="85" t="s">
         <v>98</v>
       </c>
@@ -8394,7 +8421,7 @@
         <v>854</v>
       </c>
     </row>
-    <row r="22" spans="1:15" ht="26" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:15" ht="26.1" x14ac:dyDescent="0.35">
       <c r="A22" s="90" t="s">
         <v>99</v>
       </c>
@@ -8439,7 +8466,7 @@
         <v>854</v>
       </c>
     </row>
-    <row r="23" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A23" s="84" t="s">
         <v>31</v>
       </c>
@@ -8484,7 +8511,7 @@
         <v>854</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:15" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A24" s="87" t="s">
         <v>100</v>
       </c>
@@ -8529,7 +8556,7 @@
         <v>854</v>
       </c>
     </row>
-    <row r="25" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A25" s="84" t="s">
         <v>31</v>
       </c>
@@ -8574,7 +8601,7 @@
         <v>854</v>
       </c>
     </row>
-    <row r="26" spans="1:15" ht="26" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:15" ht="26.1" x14ac:dyDescent="0.35">
       <c r="A26" s="87" t="s">
         <v>101</v>
       </c>
@@ -8619,7 +8646,7 @@
         <v>854</v>
       </c>
     </row>
-    <row r="27" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A27" s="84" t="s">
         <v>31</v>
       </c>
@@ -8664,7 +8691,7 @@
         <v>854</v>
       </c>
     </row>
-    <row r="28" spans="1:15" ht="26" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:15" ht="26.1" x14ac:dyDescent="0.35">
       <c r="A28" s="90" t="s">
         <v>102</v>
       </c>
@@ -8709,7 +8736,7 @@
         <v>854</v>
       </c>
     </row>
-    <row r="29" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A29" s="84" t="s">
         <v>31</v>
       </c>
@@ -8754,7 +8781,7 @@
         <v>854</v>
       </c>
     </row>
-    <row r="30" spans="1:15" ht="26" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:15" ht="26.1" x14ac:dyDescent="0.35">
       <c r="A30" s="87" t="s">
         <v>103</v>
       </c>
@@ -8799,7 +8826,7 @@
         <v>854</v>
       </c>
     </row>
-    <row r="31" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A31" s="84" t="s">
         <v>31</v>
       </c>
@@ -8885,14 +8912,14 @@
         <f t="shared" si="0"/>
         <v>90</v>
       </c>
-      <c r="N32" s="548" t="s">
+      <c r="N32" s="537" t="s">
         <v>858</v>
       </c>
-      <c r="O32" s="549" t="s">
+      <c r="O32" s="538" t="s">
         <v>894</v>
       </c>
     </row>
-    <row r="33" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A33" s="84" t="s">
         <v>31</v>
       </c>
@@ -8980,7 +9007,7 @@
         <v>854</v>
       </c>
     </row>
-    <row r="35" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A35" s="84" t="s">
         <v>31</v>
       </c>
@@ -9070,7 +9097,7 @@
         <v>854</v>
       </c>
     </row>
-    <row r="37" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A37" s="84" t="s">
         <v>31</v>
       </c>
@@ -9160,7 +9187,7 @@
         <v>854</v>
       </c>
     </row>
-    <row r="39" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A39" s="84" t="s">
         <v>31</v>
       </c>
@@ -9248,7 +9275,7 @@
         <v>854</v>
       </c>
     </row>
-    <row r="41" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A41" s="84" t="s">
         <v>31</v>
       </c>
@@ -9338,11 +9365,11 @@
         <f>M42-$M$42</f>
         <v>0</v>
       </c>
-      <c r="O42" s="549" t="s">
+      <c r="O42" s="538" t="s">
         <v>903</v>
       </c>
     </row>
-    <row r="43" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A43" s="84" t="s">
         <v>31</v>
       </c>
@@ -9433,7 +9460,7 @@
         <v>854</v>
       </c>
     </row>
-    <row r="45" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A45" s="84" t="s">
         <v>31</v>
       </c>
@@ -9523,7 +9550,7 @@
         <v>854</v>
       </c>
     </row>
-    <row r="47" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A47" s="84" t="s">
         <v>31</v>
       </c>
@@ -9613,11 +9640,11 @@
         <f t="shared" si="1"/>
         <v>21</v>
       </c>
-      <c r="O48" s="549" t="s">
+      <c r="O48" s="538" t="s">
         <v>904</v>
       </c>
     </row>
-    <row r="49" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A49" s="84" t="s">
         <v>31</v>
       </c>
@@ -9708,7 +9735,7 @@
         <v>854</v>
       </c>
     </row>
-    <row r="51" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A51" s="84" t="s">
         <v>31</v>
       </c>
@@ -9753,7 +9780,7 @@
         <v>854</v>
       </c>
     </row>
-    <row r="52" spans="1:15" ht="26" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:15" ht="26.1" x14ac:dyDescent="0.35">
       <c r="A52" s="90" t="s">
         <v>119</v>
       </c>
@@ -9798,11 +9825,11 @@
         <f t="shared" si="1"/>
         <v>35</v>
       </c>
-      <c r="O52" s="549" t="s">
+      <c r="O52" s="538" t="s">
         <v>905</v>
       </c>
     </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:15" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A53" s="83" t="s">
         <v>31</v>
       </c>
@@ -9848,7 +9875,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="54" spans="1:15" ht="26" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:15" ht="26.1" x14ac:dyDescent="0.35">
       <c r="A54" s="90" t="s">
         <v>120</v>
       </c>
@@ -9896,7 +9923,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="55" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A55" s="84" t="s">
         <v>31</v>
       </c>
@@ -9939,7 +9966,7 @@
       </c>
       <c r="N55" s="531"/>
     </row>
-    <row r="56" spans="1:15" ht="26" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:15" ht="26.1" x14ac:dyDescent="0.35">
       <c r="A56" s="90" t="s">
         <v>121</v>
       </c>
@@ -9984,7 +10011,7 @@
         <v>856</v>
       </c>
     </row>
-    <row r="57" spans="1:15" ht="14.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="57" spans="1:15" ht="14.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A57" s="84" t="s">
         <v>31</v>
       </c>
@@ -10029,7 +10056,7 @@
         <v>856</v>
       </c>
     </row>
-    <row r="58" spans="1:15" ht="26" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:15" ht="26.1" x14ac:dyDescent="0.35">
       <c r="A58" s="90" t="s">
         <v>122</v>
       </c>
@@ -10074,7 +10101,7 @@
         <v>854</v>
       </c>
     </row>
-    <row r="59" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="59" spans="1:15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A59" s="84" t="s">
         <v>31</v>
       </c>
@@ -10119,7 +10146,7 @@
         <v>854</v>
       </c>
     </row>
-    <row r="60" spans="1:15" ht="26" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:15" ht="26.1" x14ac:dyDescent="0.35">
       <c r="A60" s="90" t="s">
         <v>123</v>
       </c>
@@ -10164,7 +10191,7 @@
         <v>854</v>
       </c>
     </row>
-    <row r="61" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A61" s="84" t="s">
         <v>31</v>
       </c>
@@ -10209,7 +10236,7 @@
         <v>854</v>
       </c>
     </row>
-    <row r="62" spans="1:15" ht="26" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:15" ht="26.1" x14ac:dyDescent="0.35">
       <c r="A62" s="90" t="s">
         <v>124</v>
       </c>
@@ -10254,7 +10281,7 @@
         <v>854</v>
       </c>
     </row>
-    <row r="63" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="63" spans="1:15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A63" s="84" t="s">
         <v>31</v>
       </c>
@@ -10299,7 +10326,7 @@
         <v>854</v>
       </c>
     </row>
-    <row r="64" spans="1:15" ht="26" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:15" ht="26.1" x14ac:dyDescent="0.35">
       <c r="A64" s="90" t="s">
         <v>125</v>
       </c>
@@ -10344,7 +10371,7 @@
         <v>854</v>
       </c>
     </row>
-    <row r="65" spans="1:14" ht="26" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:14" ht="26.1" x14ac:dyDescent="0.35">
       <c r="A65" s="90" t="s">
         <v>126</v>
       </c>
@@ -10389,7 +10416,7 @@
         <v>854</v>
       </c>
     </row>
-    <row r="66" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="66" spans="1:14" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A66" s="84" t="s">
         <v>31</v>
       </c>
@@ -10434,7 +10461,7 @@
         <v>854</v>
       </c>
     </row>
-    <row r="67" spans="1:14" ht="26" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:14" ht="26.1" x14ac:dyDescent="0.35">
       <c r="A67" s="90" t="s">
         <v>127</v>
       </c>
@@ -10479,7 +10506,7 @@
         <v>854</v>
       </c>
     </row>
-    <row r="68" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="68" spans="1:14" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A68" s="84" t="s">
         <v>31</v>
       </c>
@@ -10524,7 +10551,7 @@
         <v>854</v>
       </c>
     </row>
-    <row r="69" spans="1:14" ht="26" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:14" ht="26.1" x14ac:dyDescent="0.35">
       <c r="A69" s="90" t="s">
         <v>128</v>
       </c>
@@ -10569,7 +10596,7 @@
         <v>854</v>
       </c>
     </row>
-    <row r="70" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="70" spans="1:14" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A70" s="84" t="s">
         <v>31</v>
       </c>
@@ -10614,7 +10641,7 @@
         <v>854</v>
       </c>
     </row>
-    <row r="71" spans="1:14" ht="26" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:14" ht="26.1" x14ac:dyDescent="0.35">
       <c r="A71" s="90" t="s">
         <v>129</v>
       </c>
@@ -10659,7 +10686,7 @@
         <v>854</v>
       </c>
     </row>
-    <row r="72" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="72" spans="1:14" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A72" s="84" t="s">
         <v>31</v>
       </c>
@@ -10704,7 +10731,7 @@
         <v>854</v>
       </c>
     </row>
-    <row r="73" spans="1:14" ht="26" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:14" ht="26.1" x14ac:dyDescent="0.35">
       <c r="A73" s="90" t="s">
         <v>130</v>
       </c>
@@ -10749,7 +10776,7 @@
         <v>854</v>
       </c>
     </row>
-    <row r="74" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="74" spans="1:14" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A74" s="84" t="s">
         <v>31</v>
       </c>
@@ -10794,7 +10821,7 @@
         <v>854</v>
       </c>
     </row>
-    <row r="75" spans="1:14" ht="26" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:14" ht="26.1" x14ac:dyDescent="0.35">
       <c r="A75" s="87" t="s">
         <v>131</v>
       </c>
@@ -10839,7 +10866,7 @@
         <v>854</v>
       </c>
     </row>
-    <row r="76" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="76" spans="1:14" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A76" s="84" t="s">
         <v>31</v>
       </c>
@@ -10884,7 +10911,7 @@
         <v>854</v>
       </c>
     </row>
-    <row r="77" spans="1:14" ht="26" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:14" ht="26.1" x14ac:dyDescent="0.35">
       <c r="A77" s="87" t="s">
         <v>132</v>
       </c>
@@ -10929,7 +10956,7 @@
         <v>854</v>
       </c>
     </row>
-    <row r="78" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="78" spans="1:14" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A78" s="84" t="s">
         <v>31</v>
       </c>
@@ -10974,7 +11001,7 @@
         <v>854</v>
       </c>
     </row>
-    <row r="79" spans="1:14" ht="26" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:14" ht="26.1" x14ac:dyDescent="0.35">
       <c r="A79" s="87" t="s">
         <v>133</v>
       </c>
@@ -11019,7 +11046,7 @@
         <v>854</v>
       </c>
     </row>
-    <row r="80" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="80" spans="1:14" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A80" s="84" t="s">
         <v>31</v>
       </c>
@@ -11064,7 +11091,7 @@
         <v>854</v>
       </c>
     </row>
-    <row r="81" spans="1:14" ht="26" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:14" ht="26.1" x14ac:dyDescent="0.35">
       <c r="A81" s="87" t="s">
         <v>134</v>
       </c>
@@ -11109,7 +11136,7 @@
         <v>856</v>
       </c>
     </row>
-    <row r="82" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="82" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A82" s="84" t="s">
         <v>31</v>
       </c>
@@ -11154,7 +11181,7 @@
         <v>856</v>
       </c>
     </row>
-    <row r="83" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A83" s="91" t="s">
         <v>135</v>
       </c>
@@ -11199,7 +11226,7 @@
         <v>856</v>
       </c>
     </row>
-    <row r="84" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A84" s="83" t="s">
         <v>31</v>
       </c>
@@ -11255,36 +11282,36 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:M12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="M8" sqref="M8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.1796875" customWidth="1"/>
-    <col min="2" max="2" width="18.54296875" hidden="1" customWidth="1"/>
-    <col min="3" max="3" width="19.54296875" hidden="1" customWidth="1"/>
-    <col min="4" max="4" width="21.81640625" customWidth="1"/>
-    <col min="5" max="5" width="21.54296875" customWidth="1"/>
-    <col min="6" max="6" width="12.81640625" hidden="1" customWidth="1"/>
-    <col min="7" max="7" width="12.54296875" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="17.81640625" hidden="1" customWidth="1"/>
-    <col min="9" max="9" width="13.54296875" customWidth="1"/>
-    <col min="10" max="10" width="14.1796875" customWidth="1"/>
-    <col min="11" max="11" width="18.7265625" customWidth="1"/>
-    <col min="12" max="12" width="25.54296875" customWidth="1"/>
-    <col min="13" max="13" width="16.453125" customWidth="1"/>
+    <col min="1" max="1" width="16.140625" customWidth="1"/>
+    <col min="2" max="2" width="18.5703125" hidden="1" customWidth="1"/>
+    <col min="3" max="3" width="19.5703125" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="21.85546875" customWidth="1"/>
+    <col min="5" max="5" width="21.5703125" customWidth="1"/>
+    <col min="6" max="6" width="12.85546875" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="12.5703125" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="17.85546875" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="13.5703125" customWidth="1"/>
+    <col min="10" max="10" width="14.140625" customWidth="1"/>
+    <col min="11" max="11" width="18.7109375" customWidth="1"/>
+    <col min="12" max="12" width="25.5703125" customWidth="1"/>
+    <col min="13" max="13" width="16.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A2" s="541"/>
-      <c r="B2" s="541"/>
-      <c r="C2" s="541"/>
-      <c r="D2" s="541"/>
-      <c r="E2" s="541"/>
+    <row r="2" spans="1:13" ht="14.45" x14ac:dyDescent="0.35">
+      <c r="A2" s="544"/>
+      <c r="B2" s="544"/>
+      <c r="C2" s="544"/>
+      <c r="D2" s="544"/>
+      <c r="E2" s="544"/>
       <c r="F2" s="115"/>
       <c r="G2" s="115"/>
       <c r="H2" s="115"/>
@@ -11293,7 +11320,7 @@
       <c r="K2" s="115"/>
       <c r="L2" s="115"/>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:13" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A3" s="115"/>
       <c r="B3" s="115"/>
       <c r="C3" s="115"/>
@@ -11309,13 +11336,13 @@
       <c r="K3" s="115"/>
       <c r="L3" s="115"/>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A4" s="541"/>
-      <c r="B4" s="541"/>
-      <c r="C4" s="541"/>
-      <c r="D4" s="541"/>
-      <c r="E4" s="541"/>
-      <c r="F4" s="541"/>
+    <row r="4" spans="1:13" ht="14.45" x14ac:dyDescent="0.35">
+      <c r="A4" s="544"/>
+      <c r="B4" s="544"/>
+      <c r="C4" s="544"/>
+      <c r="D4" s="544"/>
+      <c r="E4" s="544"/>
+      <c r="F4" s="544"/>
       <c r="G4" s="116"/>
       <c r="H4" s="115"/>
       <c r="I4" s="115"/>
@@ -11323,7 +11350,7 @@
       <c r="K4" s="115"/>
       <c r="L4" s="115"/>
     </row>
-    <row r="5" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:13" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A5" s="116"/>
       <c r="B5" s="116"/>
       <c r="C5" s="116"/>
@@ -11337,21 +11364,21 @@
       <c r="K5" s="115"/>
       <c r="L5" s="115"/>
     </row>
-    <row r="6" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="536"/>
-      <c r="B6" s="536"/>
-      <c r="C6" s="536"/>
-      <c r="D6" s="536"/>
-      <c r="E6" s="536"/>
-      <c r="F6" s="536"/>
-      <c r="G6" s="536"/>
-      <c r="H6" s="536"/>
-      <c r="I6" s="536"/>
-      <c r="J6" s="536"/>
-      <c r="K6" s="536"/>
-      <c r="L6" s="542"/>
-    </row>
-    <row r="7" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:13" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A6" s="539"/>
+      <c r="B6" s="539"/>
+      <c r="C6" s="539"/>
+      <c r="D6" s="539"/>
+      <c r="E6" s="539"/>
+      <c r="F6" s="539"/>
+      <c r="G6" s="539"/>
+      <c r="H6" s="539"/>
+      <c r="I6" s="539"/>
+      <c r="J6" s="539"/>
+      <c r="K6" s="539"/>
+      <c r="L6" s="545"/>
+    </row>
+    <row r="7" spans="1:13" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A7" s="117" t="s">
         <v>2</v>
       </c>
@@ -11392,7 +11419,7 @@
         <v>853</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:13" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A8" s="122" t="s">
         <v>139</v>
       </c>
@@ -11429,11 +11456,11 @@
       <c r="L8" s="104" t="s">
         <v>21</v>
       </c>
-      <c r="M8" s="547" t="s">
+      <c r="M8" s="536" t="s">
         <v>896</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:13" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A9" s="118" t="s">
         <v>142</v>
       </c>
@@ -11474,7 +11501,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="10" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:13" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A10" s="119" t="s">
         <v>31</v>
       </c>
@@ -11515,7 +11542,7 @@
         <v>865</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:13" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A11" s="121" t="s">
         <v>143</v>
       </c>
@@ -11556,7 +11583,7 @@
         <v>865</v>
       </c>
     </row>
-    <row r="12" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:13" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A12" s="119" t="s">
         <v>31</v>
       </c>
@@ -11609,35 +11636,35 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:M151"/>
   <sheetViews>
     <sheetView topLeftCell="A16" workbookViewId="0">
       <selection activeCell="M21" sqref="M21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18" customWidth="1"/>
-    <col min="2" max="2" width="19.81640625" hidden="1" customWidth="1"/>
-    <col min="3" max="3" width="19.54296875" hidden="1" customWidth="1"/>
-    <col min="4" max="4" width="22.1796875" customWidth="1"/>
+    <col min="2" max="2" width="19.85546875" hidden="1" customWidth="1"/>
+    <col min="3" max="3" width="19.5703125" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="22.140625" customWidth="1"/>
     <col min="5" max="5" width="22" customWidth="1"/>
-    <col min="6" max="6" width="12.54296875" hidden="1" customWidth="1"/>
-    <col min="7" max="7" width="12.1796875" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="12.5703125" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="12.140625" hidden="1" customWidth="1"/>
     <col min="8" max="8" width="18" hidden="1" customWidth="1"/>
-    <col min="9" max="9" width="15.7265625" customWidth="1"/>
-    <col min="10" max="10" width="13.453125" customWidth="1"/>
-    <col min="11" max="11" width="19.26953125" customWidth="1"/>
-    <col min="12" max="12" width="25.7265625" customWidth="1"/>
+    <col min="9" max="9" width="15.7109375" customWidth="1"/>
+    <col min="10" max="10" width="13.42578125" customWidth="1"/>
+    <col min="11" max="11" width="19.28515625" customWidth="1"/>
+    <col min="12" max="12" width="25.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A2" s="541"/>
-      <c r="B2" s="541"/>
-      <c r="C2" s="541"/>
-      <c r="D2" s="541"/>
-      <c r="E2" s="541"/>
+    <row r="2" spans="1:13" ht="14.45" x14ac:dyDescent="0.35">
+      <c r="A2" s="544"/>
+      <c r="B2" s="544"/>
+      <c r="C2" s="544"/>
+      <c r="D2" s="544"/>
+      <c r="E2" s="544"/>
       <c r="F2" s="135"/>
       <c r="G2" s="135"/>
       <c r="H2" s="135"/>
@@ -11646,7 +11673,7 @@
       <c r="K2" s="135"/>
       <c r="L2" s="135"/>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:13" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A3" s="135"/>
       <c r="B3" s="135"/>
       <c r="C3" s="135"/>
@@ -11662,13 +11689,13 @@
       <c r="K3" s="135"/>
       <c r="L3" s="135"/>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A4" s="541"/>
-      <c r="B4" s="541"/>
-      <c r="C4" s="541"/>
-      <c r="D4" s="541"/>
-      <c r="E4" s="541"/>
-      <c r="F4" s="541"/>
+    <row r="4" spans="1:13" ht="14.45" x14ac:dyDescent="0.35">
+      <c r="A4" s="544"/>
+      <c r="B4" s="544"/>
+      <c r="C4" s="544"/>
+      <c r="D4" s="544"/>
+      <c r="E4" s="544"/>
+      <c r="F4" s="544"/>
       <c r="G4" s="136"/>
       <c r="H4" s="135"/>
       <c r="I4" s="135"/>
@@ -11676,7 +11703,7 @@
       <c r="K4" s="135"/>
       <c r="L4" s="135"/>
     </row>
-    <row r="5" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:13" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A5" s="136"/>
       <c r="B5" s="136"/>
       <c r="C5" s="136"/>
@@ -11690,21 +11717,21 @@
       <c r="K5" s="135"/>
       <c r="L5" s="135"/>
     </row>
-    <row r="6" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="536"/>
-      <c r="B6" s="536"/>
-      <c r="C6" s="536"/>
-      <c r="D6" s="536"/>
-      <c r="E6" s="536"/>
-      <c r="F6" s="536"/>
-      <c r="G6" s="536"/>
-      <c r="H6" s="536"/>
-      <c r="I6" s="536"/>
-      <c r="J6" s="536"/>
-      <c r="K6" s="536"/>
-      <c r="L6" s="537"/>
-    </row>
-    <row r="7" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:13" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A6" s="539"/>
+      <c r="B6" s="539"/>
+      <c r="C6" s="539"/>
+      <c r="D6" s="539"/>
+      <c r="E6" s="539"/>
+      <c r="F6" s="539"/>
+      <c r="G6" s="539"/>
+      <c r="H6" s="539"/>
+      <c r="I6" s="539"/>
+      <c r="J6" s="539"/>
+      <c r="K6" s="539"/>
+      <c r="L6" s="540"/>
+    </row>
+    <row r="7" spans="1:13" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A7" s="137" t="s">
         <v>2</v>
       </c>
@@ -11745,7 +11772,7 @@
         <v>853</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:13" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A8" s="140" t="s">
         <v>144</v>
       </c>
@@ -11786,7 +11813,7 @@
         <v>856</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:13" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A9" s="134" t="s">
         <v>146</v>
       </c>
@@ -11827,7 +11854,7 @@
         <v>856</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:13" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A10" s="134" t="s">
         <v>149</v>
       </c>
@@ -11866,7 +11893,7 @@
       </c>
       <c r="M10" s="501"/>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:13" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A11" s="134" t="s">
         <v>151</v>
       </c>
@@ -11905,7 +11932,7 @@
       </c>
       <c r="M11" s="501"/>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:13" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A12" s="134" t="s">
         <v>154</v>
       </c>
@@ -11944,7 +11971,7 @@
       </c>
       <c r="M12" s="501"/>
     </row>
-    <row r="13" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:13" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A13" s="139" t="s">
         <v>156</v>
       </c>
@@ -11983,7 +12010,7 @@
       </c>
       <c r="M13" s="501"/>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:13" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A14" s="140" t="s">
         <v>158</v>
       </c>
@@ -12024,7 +12051,7 @@
         <v>856</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:13" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A15" s="134" t="s">
         <v>146</v>
       </c>
@@ -12065,7 +12092,7 @@
         <v>856</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:13" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A16" s="134" t="s">
         <v>149</v>
       </c>
@@ -12104,7 +12131,7 @@
       </c>
       <c r="M16" s="501"/>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:13" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A17" s="134" t="s">
         <v>151</v>
       </c>
@@ -12143,7 +12170,7 @@
       </c>
       <c r="M17" s="501"/>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:13" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A18" s="134" t="s">
         <v>154</v>
       </c>
@@ -12182,7 +12209,7 @@
       </c>
       <c r="M18" s="501"/>
     </row>
-    <row r="19" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:13" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A19" s="139" t="s">
         <v>156</v>
       </c>
@@ -12221,7 +12248,7 @@
       </c>
       <c r="M19" s="501"/>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:13" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A20" s="140" t="s">
         <v>167</v>
       </c>
@@ -12260,7 +12287,7 @@
       </c>
       <c r="M20" s="501"/>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:13" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A21" s="134" t="s">
         <v>146</v>
       </c>
@@ -12299,7 +12326,7 @@
       </c>
       <c r="M21" s="501"/>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:13" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A22" s="134" t="s">
         <v>149</v>
       </c>
@@ -12338,7 +12365,7 @@
       </c>
       <c r="M22" s="501"/>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:13" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A23" s="134" t="s">
         <v>151</v>
       </c>
@@ -12377,7 +12404,7 @@
       </c>
       <c r="M23" s="501"/>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:13" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A24" s="134" t="s">
         <v>154</v>
       </c>
@@ -12416,7 +12443,7 @@
       </c>
       <c r="M24" s="501"/>
     </row>
-    <row r="25" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:13" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A25" s="139" t="s">
         <v>156</v>
       </c>
@@ -12455,7 +12482,7 @@
       </c>
       <c r="M25" s="501"/>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:13" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A26" s="140" t="s">
         <v>176</v>
       </c>
@@ -12494,7 +12521,7 @@
       </c>
       <c r="M26" s="501"/>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:13" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A27" s="134" t="s">
         <v>146</v>
       </c>
@@ -12533,7 +12560,7 @@
       </c>
       <c r="M27" s="501"/>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:13" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A28" s="134" t="s">
         <v>149</v>
       </c>
@@ -12572,7 +12599,7 @@
       </c>
       <c r="M28" s="501"/>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:13" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A29" s="134" t="s">
         <v>151</v>
       </c>
@@ -12611,7 +12638,7 @@
       </c>
       <c r="M29" s="501"/>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:13" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A30" s="134" t="s">
         <v>154</v>
       </c>
@@ -12650,7 +12677,7 @@
       </c>
       <c r="M30" s="501"/>
     </row>
-    <row r="31" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:13" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A31" s="139" t="s">
         <v>156</v>
       </c>
@@ -12689,7 +12716,7 @@
       </c>
       <c r="M31" s="501"/>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:13" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A32" s="140" t="s">
         <v>185</v>
       </c>
@@ -12728,7 +12755,7 @@
       </c>
       <c r="M32" s="501"/>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:13" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A33" s="134" t="s">
         <v>146</v>
       </c>
@@ -12767,7 +12794,7 @@
       </c>
       <c r="M33" s="501"/>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:13" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A34" s="134" t="s">
         <v>149</v>
       </c>
@@ -12806,7 +12833,7 @@
       </c>
       <c r="M34" s="501"/>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:13" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A35" s="134" t="s">
         <v>151</v>
       </c>
@@ -12845,7 +12872,7 @@
       </c>
       <c r="M35" s="501"/>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:13" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A36" s="134" t="s">
         <v>154</v>
       </c>
@@ -12884,7 +12911,7 @@
       </c>
       <c r="M36" s="501"/>
     </row>
-    <row r="37" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:13" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A37" s="139" t="s">
         <v>156</v>
       </c>
@@ -12923,7 +12950,7 @@
       </c>
       <c r="M37" s="501"/>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:13" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A38" s="140" t="s">
         <v>194</v>
       </c>
@@ -12962,7 +12989,7 @@
       </c>
       <c r="M38" s="501"/>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:13" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A39" s="134" t="s">
         <v>146</v>
       </c>
@@ -13001,7 +13028,7 @@
       </c>
       <c r="M39" s="501"/>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:13" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A40" s="134" t="s">
         <v>149</v>
       </c>
@@ -13040,7 +13067,7 @@
       </c>
       <c r="M40" s="501"/>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:13" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A41" s="134" t="s">
         <v>151</v>
       </c>
@@ -13079,7 +13106,7 @@
       </c>
       <c r="M41" s="501"/>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:13" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A42" s="134" t="s">
         <v>154</v>
       </c>
@@ -13118,7 +13145,7 @@
       </c>
       <c r="M42" s="501"/>
     </row>
-    <row r="43" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:13" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A43" s="139" t="s">
         <v>156</v>
       </c>
@@ -13157,7 +13184,7 @@
       </c>
       <c r="M43" s="501"/>
     </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:13" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A44" s="140" t="s">
         <v>203</v>
       </c>
@@ -13196,7 +13223,7 @@
       </c>
       <c r="M44" s="501"/>
     </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:13" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A45" s="134" t="s">
         <v>146</v>
       </c>
@@ -13235,7 +13262,7 @@
       </c>
       <c r="M45" s="501"/>
     </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:13" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A46" s="134" t="s">
         <v>149</v>
       </c>
@@ -13274,7 +13301,7 @@
       </c>
       <c r="M46" s="501"/>
     </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:13" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A47" s="134" t="s">
         <v>151</v>
       </c>
@@ -13313,7 +13340,7 @@
       </c>
       <c r="M47" s="501"/>
     </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:13" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A48" s="134" t="s">
         <v>154</v>
       </c>
@@ -13352,7 +13379,7 @@
       </c>
       <c r="M48" s="501"/>
     </row>
-    <row r="49" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:13" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A49" s="139" t="s">
         <v>156</v>
       </c>
@@ -13391,7 +13418,7 @@
       </c>
       <c r="M49" s="501"/>
     </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:13" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A50" s="140" t="s">
         <v>212</v>
       </c>
@@ -13430,7 +13457,7 @@
       </c>
       <c r="M50" s="501"/>
     </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A51" s="134" t="s">
         <v>146</v>
       </c>
@@ -13469,7 +13496,7 @@
       </c>
       <c r="M51" s="501"/>
     </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A52" s="134" t="s">
         <v>149</v>
       </c>
@@ -13508,7 +13535,7 @@
       </c>
       <c r="M52" s="501"/>
     </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A53" s="134" t="s">
         <v>151</v>
       </c>
@@ -13547,7 +13574,7 @@
       </c>
       <c r="M53" s="501"/>
     </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A54" s="134" t="s">
         <v>154</v>
       </c>
@@ -13586,7 +13613,7 @@
       </c>
       <c r="M54" s="501"/>
     </row>
-    <row r="55" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A55" s="139" t="s">
         <v>156</v>
       </c>
@@ -13625,7 +13652,7 @@
       </c>
       <c r="M55" s="501"/>
     </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A56" s="140" t="s">
         <v>221</v>
       </c>
@@ -13664,7 +13691,7 @@
       </c>
       <c r="M56" s="501"/>
     </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A57" s="134" t="s">
         <v>146</v>
       </c>
@@ -13703,7 +13730,7 @@
       </c>
       <c r="M57" s="501"/>
     </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A58" s="134" t="s">
         <v>149</v>
       </c>
@@ -13742,7 +13769,7 @@
       </c>
       <c r="M58" s="501"/>
     </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A59" s="134" t="s">
         <v>151</v>
       </c>
@@ -13781,7 +13808,7 @@
       </c>
       <c r="M59" s="501"/>
     </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A60" s="134" t="s">
         <v>154</v>
       </c>
@@ -13820,7 +13847,7 @@
       </c>
       <c r="M60" s="501"/>
     </row>
-    <row r="61" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A61" s="139" t="s">
         <v>156</v>
       </c>
@@ -13859,7 +13886,7 @@
       </c>
       <c r="M61" s="501"/>
     </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A62" s="140" t="s">
         <v>230</v>
       </c>
@@ -13898,7 +13925,7 @@
       </c>
       <c r="M62" s="501"/>
     </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A63" s="134" t="s">
         <v>146</v>
       </c>
@@ -13937,7 +13964,7 @@
       </c>
       <c r="M63" s="501"/>
     </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A64" s="134" t="s">
         <v>149</v>
       </c>
@@ -13976,7 +14003,7 @@
       </c>
       <c r="M64" s="501"/>
     </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A65" s="134" t="s">
         <v>151</v>
       </c>
@@ -14015,7 +14042,7 @@
       </c>
       <c r="M65" s="501"/>
     </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A66" s="134" t="s">
         <v>154</v>
       </c>
@@ -14054,7 +14081,7 @@
       </c>
       <c r="M66" s="501"/>
     </row>
-    <row r="67" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="67" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A67" s="139" t="s">
         <v>156</v>
       </c>
@@ -14093,7 +14120,7 @@
       </c>
       <c r="M67" s="501"/>
     </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A68" s="140" t="s">
         <v>239</v>
       </c>
@@ -14132,7 +14159,7 @@
       </c>
       <c r="M68" s="501"/>
     </row>
-    <row r="69" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A69" s="134" t="s">
         <v>146</v>
       </c>
@@ -14171,7 +14198,7 @@
       </c>
       <c r="M69" s="501"/>
     </row>
-    <row r="70" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A70" s="134" t="s">
         <v>149</v>
       </c>
@@ -14210,7 +14237,7 @@
       </c>
       <c r="M70" s="501"/>
     </row>
-    <row r="71" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A71" s="134" t="s">
         <v>151</v>
       </c>
@@ -14249,7 +14276,7 @@
       </c>
       <c r="M71" s="501"/>
     </row>
-    <row r="72" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A72" s="134" t="s">
         <v>154</v>
       </c>
@@ -14288,7 +14315,7 @@
       </c>
       <c r="M72" s="501"/>
     </row>
-    <row r="73" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="73" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A73" s="139" t="s">
         <v>156</v>
       </c>
@@ -14327,7 +14354,7 @@
       </c>
       <c r="M73" s="501"/>
     </row>
-    <row r="74" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A74" s="140" t="s">
         <v>248</v>
       </c>
@@ -14366,7 +14393,7 @@
       </c>
       <c r="M74" s="501"/>
     </row>
-    <row r="75" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A75" s="134" t="s">
         <v>146</v>
       </c>
@@ -14405,7 +14432,7 @@
       </c>
       <c r="M75" s="501"/>
     </row>
-    <row r="76" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A76" s="134" t="s">
         <v>149</v>
       </c>
@@ -14444,7 +14471,7 @@
       </c>
       <c r="M76" s="501"/>
     </row>
-    <row r="77" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A77" s="134" t="s">
         <v>151</v>
       </c>
@@ -14483,7 +14510,7 @@
       </c>
       <c r="M77" s="501"/>
     </row>
-    <row r="78" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A78" s="134" t="s">
         <v>154</v>
       </c>
@@ -14522,7 +14549,7 @@
       </c>
       <c r="M78" s="501"/>
     </row>
-    <row r="79" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="79" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A79" s="139" t="s">
         <v>156</v>
       </c>
@@ -14561,7 +14588,7 @@
       </c>
       <c r="M79" s="501"/>
     </row>
-    <row r="80" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A80" s="140" t="s">
         <v>257</v>
       </c>
@@ -14600,7 +14627,7 @@
       </c>
       <c r="M80" s="501"/>
     </row>
-    <row r="81" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A81" s="134" t="s">
         <v>146</v>
       </c>
@@ -14639,7 +14666,7 @@
       </c>
       <c r="M81" s="501"/>
     </row>
-    <row r="82" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A82" s="134" t="s">
         <v>149</v>
       </c>
@@ -14678,7 +14705,7 @@
       </c>
       <c r="M82" s="501"/>
     </row>
-    <row r="83" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A83" s="134" t="s">
         <v>151</v>
       </c>
@@ -14717,7 +14744,7 @@
       </c>
       <c r="M83" s="501"/>
     </row>
-    <row r="84" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A84" s="134" t="s">
         <v>154</v>
       </c>
@@ -14756,7 +14783,7 @@
       </c>
       <c r="M84" s="501"/>
     </row>
-    <row r="85" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="85" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A85" s="139" t="s">
         <v>156</v>
       </c>
@@ -14795,7 +14822,7 @@
       </c>
       <c r="M85" s="501"/>
     </row>
-    <row r="86" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A86" s="140" t="s">
         <v>266</v>
       </c>
@@ -14834,7 +14861,7 @@
       </c>
       <c r="M86" s="501"/>
     </row>
-    <row r="87" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A87" s="134" t="s">
         <v>146</v>
       </c>
@@ -14873,7 +14900,7 @@
       </c>
       <c r="M87" s="501"/>
     </row>
-    <row r="88" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A88" s="134" t="s">
         <v>149</v>
       </c>
@@ -14912,7 +14939,7 @@
       </c>
       <c r="M88" s="501"/>
     </row>
-    <row r="89" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A89" s="134" t="s">
         <v>151</v>
       </c>
@@ -14951,7 +14978,7 @@
       </c>
       <c r="M89" s="501"/>
     </row>
-    <row r="90" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A90" s="134" t="s">
         <v>154</v>
       </c>
@@ -14990,7 +15017,7 @@
       </c>
       <c r="M90" s="501"/>
     </row>
-    <row r="91" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="91" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A91" s="139" t="s">
         <v>156</v>
       </c>
@@ -15029,7 +15056,7 @@
       </c>
       <c r="M91" s="501"/>
     </row>
-    <row r="92" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A92" s="140" t="s">
         <v>275</v>
       </c>
@@ -15068,7 +15095,7 @@
       </c>
       <c r="M92" s="501"/>
     </row>
-    <row r="93" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A93" s="134" t="s">
         <v>146</v>
       </c>
@@ -15107,7 +15134,7 @@
       </c>
       <c r="M93" s="501"/>
     </row>
-    <row r="94" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A94" s="134" t="s">
         <v>149</v>
       </c>
@@ -15146,7 +15173,7 @@
       </c>
       <c r="M94" s="501"/>
     </row>
-    <row r="95" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A95" s="134" t="s">
         <v>151</v>
       </c>
@@ -15185,7 +15212,7 @@
       </c>
       <c r="M95" s="501"/>
     </row>
-    <row r="96" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A96" s="134" t="s">
         <v>154</v>
       </c>
@@ -15224,7 +15251,7 @@
       </c>
       <c r="M96" s="501"/>
     </row>
-    <row r="97" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="97" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A97" s="139" t="s">
         <v>156</v>
       </c>
@@ -15263,7 +15290,7 @@
       </c>
       <c r="M97" s="501"/>
     </row>
-    <row r="98" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A98" s="140" t="s">
         <v>284</v>
       </c>
@@ -15302,7 +15329,7 @@
       </c>
       <c r="M98" s="501"/>
     </row>
-    <row r="99" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A99" s="134" t="s">
         <v>146</v>
       </c>
@@ -15341,7 +15368,7 @@
       </c>
       <c r="M99" s="501"/>
     </row>
-    <row r="100" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A100" s="134" t="s">
         <v>149</v>
       </c>
@@ -15380,7 +15407,7 @@
       </c>
       <c r="M100" s="501"/>
     </row>
-    <row r="101" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A101" s="134" t="s">
         <v>151</v>
       </c>
@@ -15419,7 +15446,7 @@
       </c>
       <c r="M101" s="501"/>
     </row>
-    <row r="102" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A102" s="134" t="s">
         <v>154</v>
       </c>
@@ -15458,7 +15485,7 @@
       </c>
       <c r="M102" s="501"/>
     </row>
-    <row r="103" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="103" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A103" s="139" t="s">
         <v>156</v>
       </c>
@@ -15497,7 +15524,7 @@
       </c>
       <c r="M103" s="501"/>
     </row>
-    <row r="104" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A104" s="140" t="s">
         <v>293</v>
       </c>
@@ -15536,7 +15563,7 @@
       </c>
       <c r="M104" s="501"/>
     </row>
-    <row r="105" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A105" s="134" t="s">
         <v>146</v>
       </c>
@@ -15575,7 +15602,7 @@
       </c>
       <c r="M105" s="501"/>
     </row>
-    <row r="106" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A106" s="134" t="s">
         <v>149</v>
       </c>
@@ -15614,7 +15641,7 @@
       </c>
       <c r="M106" s="501"/>
     </row>
-    <row r="107" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A107" s="134" t="s">
         <v>151</v>
       </c>
@@ -15653,7 +15680,7 @@
       </c>
       <c r="M107" s="501"/>
     </row>
-    <row r="108" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A108" s="134" t="s">
         <v>154</v>
       </c>
@@ -15692,7 +15719,7 @@
       </c>
       <c r="M108" s="501"/>
     </row>
-    <row r="109" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="109" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A109" s="139" t="s">
         <v>156</v>
       </c>
@@ -15731,7 +15758,7 @@
       </c>
       <c r="M109" s="501"/>
     </row>
-    <row r="110" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A110" s="140" t="s">
         <v>302</v>
       </c>
@@ -15770,7 +15797,7 @@
       </c>
       <c r="M110" s="501"/>
     </row>
-    <row r="111" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A111" s="134" t="s">
         <v>146</v>
       </c>
@@ -15809,7 +15836,7 @@
       </c>
       <c r="M111" s="501"/>
     </row>
-    <row r="112" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A112" s="134" t="s">
         <v>149</v>
       </c>
@@ -15848,7 +15875,7 @@
       </c>
       <c r="M112" s="501"/>
     </row>
-    <row r="113" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A113" s="134" t="s">
         <v>151</v>
       </c>
@@ -15887,7 +15914,7 @@
       </c>
       <c r="M113" s="501"/>
     </row>
-    <row r="114" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A114" s="134" t="s">
         <v>154</v>
       </c>
@@ -15926,7 +15953,7 @@
       </c>
       <c r="M114" s="501"/>
     </row>
-    <row r="115" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="115" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A115" s="139" t="s">
         <v>156</v>
       </c>
@@ -15965,7 +15992,7 @@
       </c>
       <c r="M115" s="501"/>
     </row>
-    <row r="116" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A116" s="140" t="s">
         <v>311</v>
       </c>
@@ -16004,7 +16031,7 @@
       </c>
       <c r="M116" s="501"/>
     </row>
-    <row r="117" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A117" s="134" t="s">
         <v>146</v>
       </c>
@@ -16043,7 +16070,7 @@
       </c>
       <c r="M117" s="501"/>
     </row>
-    <row r="118" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A118" s="134" t="s">
         <v>149</v>
       </c>
@@ -16082,7 +16109,7 @@
       </c>
       <c r="M118" s="501"/>
     </row>
-    <row r="119" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A119" s="134" t="s">
         <v>151</v>
       </c>
@@ -16121,7 +16148,7 @@
       </c>
       <c r="M119" s="501"/>
     </row>
-    <row r="120" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A120" s="134" t="s">
         <v>154</v>
       </c>
@@ -16160,7 +16187,7 @@
       </c>
       <c r="M120" s="501"/>
     </row>
-    <row r="121" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="121" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A121" s="139" t="s">
         <v>156</v>
       </c>
@@ -16199,7 +16226,7 @@
       </c>
       <c r="M121" s="501"/>
     </row>
-    <row r="122" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A122" s="140" t="s">
         <v>320</v>
       </c>
@@ -16238,7 +16265,7 @@
       </c>
       <c r="M122" s="501"/>
     </row>
-    <row r="123" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A123" s="134" t="s">
         <v>146</v>
       </c>
@@ -16277,7 +16304,7 @@
       </c>
       <c r="M123" s="501"/>
     </row>
-    <row r="124" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A124" s="134" t="s">
         <v>149</v>
       </c>
@@ -16316,7 +16343,7 @@
       </c>
       <c r="M124" s="501"/>
     </row>
-    <row r="125" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A125" s="134" t="s">
         <v>151</v>
       </c>
@@ -16355,7 +16382,7 @@
       </c>
       <c r="M125" s="501"/>
     </row>
-    <row r="126" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A126" s="134" t="s">
         <v>154</v>
       </c>
@@ -16394,7 +16421,7 @@
       </c>
       <c r="M126" s="501"/>
     </row>
-    <row r="127" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="127" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A127" s="139" t="s">
         <v>156</v>
       </c>
@@ -16433,7 +16460,7 @@
       </c>
       <c r="M127" s="501"/>
     </row>
-    <row r="128" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A128" s="140" t="s">
         <v>329</v>
       </c>
@@ -16472,7 +16499,7 @@
       </c>
       <c r="M128" s="501"/>
     </row>
-    <row r="129" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A129" s="134" t="s">
         <v>146</v>
       </c>
@@ -16511,7 +16538,7 @@
       </c>
       <c r="M129" s="501"/>
     </row>
-    <row r="130" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A130" s="134" t="s">
         <v>149</v>
       </c>
@@ -16550,7 +16577,7 @@
       </c>
       <c r="M130" s="501"/>
     </row>
-    <row r="131" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A131" s="134" t="s">
         <v>151</v>
       </c>
@@ -16589,7 +16616,7 @@
       </c>
       <c r="M131" s="501"/>
     </row>
-    <row r="132" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A132" s="134" t="s">
         <v>154</v>
       </c>
@@ -16628,7 +16655,7 @@
       </c>
       <c r="M132" s="501"/>
     </row>
-    <row r="133" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="133" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A133" s="139" t="s">
         <v>156</v>
       </c>
@@ -16667,7 +16694,7 @@
       </c>
       <c r="M133" s="501"/>
     </row>
-    <row r="134" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A134" s="140" t="s">
         <v>338</v>
       </c>
@@ -16706,7 +16733,7 @@
       </c>
       <c r="M134" s="501"/>
     </row>
-    <row r="135" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A135" s="134" t="s">
         <v>146</v>
       </c>
@@ -16745,7 +16772,7 @@
       </c>
       <c r="M135" s="501"/>
     </row>
-    <row r="136" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A136" s="134" t="s">
         <v>149</v>
       </c>
@@ -16784,7 +16811,7 @@
       </c>
       <c r="M136" s="501"/>
     </row>
-    <row r="137" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A137" s="134" t="s">
         <v>151</v>
       </c>
@@ -16823,7 +16850,7 @@
       </c>
       <c r="M137" s="501"/>
     </row>
-    <row r="138" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A138" s="134" t="s">
         <v>154</v>
       </c>
@@ -16862,7 +16889,7 @@
       </c>
       <c r="M138" s="501"/>
     </row>
-    <row r="139" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="139" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A139" s="139" t="s">
         <v>156</v>
       </c>
@@ -16901,7 +16928,7 @@
       </c>
       <c r="M139" s="501"/>
     </row>
-    <row r="140" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A140" s="140" t="s">
         <v>347</v>
       </c>
@@ -16940,7 +16967,7 @@
       </c>
       <c r="M140" s="501"/>
     </row>
-    <row r="141" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A141" s="134" t="s">
         <v>146</v>
       </c>
@@ -16979,7 +17006,7 @@
       </c>
       <c r="M141" s="501"/>
     </row>
-    <row r="142" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A142" s="134" t="s">
         <v>149</v>
       </c>
@@ -17018,7 +17045,7 @@
       </c>
       <c r="M142" s="501"/>
     </row>
-    <row r="143" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A143" s="134" t="s">
         <v>151</v>
       </c>
@@ -17057,7 +17084,7 @@
       </c>
       <c r="M143" s="501"/>
     </row>
-    <row r="144" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A144" s="134" t="s">
         <v>154</v>
       </c>
@@ -17096,7 +17123,7 @@
       </c>
       <c r="M144" s="501"/>
     </row>
-    <row r="145" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="145" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A145" s="139" t="s">
         <v>156</v>
       </c>
@@ -17135,7 +17162,7 @@
       </c>
       <c r="M145" s="501"/>
     </row>
-    <row r="146" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A146" s="140" t="s">
         <v>356</v>
       </c>
@@ -17174,7 +17201,7 @@
       </c>
       <c r="M146" s="501"/>
     </row>
-    <row r="147" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A147" s="134" t="s">
         <v>146</v>
       </c>
@@ -17213,7 +17240,7 @@
       </c>
       <c r="M147" s="501"/>
     </row>
-    <row r="148" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A148" s="134" t="s">
         <v>149</v>
       </c>
@@ -17252,7 +17279,7 @@
       </c>
       <c r="M148" s="501"/>
     </row>
-    <row r="149" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A149" s="134" t="s">
         <v>151</v>
       </c>
@@ -17291,7 +17318,7 @@
       </c>
       <c r="M149" s="501"/>
     </row>
-    <row r="150" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A150" s="134" t="s">
         <v>154</v>
       </c>
@@ -17330,7 +17357,7 @@
       </c>
       <c r="M150" s="501"/>
     </row>
-    <row r="151" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="151" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A151" s="139" t="s">
         <v>156</v>
       </c>
@@ -17381,34 +17408,34 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:M79"/>
   <sheetViews>
     <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="M19" sqref="M19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15" customWidth="1"/>
-    <col min="2" max="2" width="19.453125" hidden="1" customWidth="1"/>
-    <col min="3" max="3" width="19.54296875" hidden="1" customWidth="1"/>
-    <col min="4" max="4" width="21.81640625" customWidth="1"/>
-    <col min="5" max="5" width="22.1796875" customWidth="1"/>
-    <col min="6" max="7" width="12.81640625" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="17.81640625" hidden="1" customWidth="1"/>
-    <col min="9" max="9" width="14.54296875" customWidth="1"/>
-    <col min="10" max="10" width="13.54296875" customWidth="1"/>
-    <col min="11" max="11" width="20.26953125" customWidth="1"/>
-    <col min="12" max="12" width="25.54296875" customWidth="1"/>
+    <col min="2" max="2" width="19.42578125" hidden="1" customWidth="1"/>
+    <col min="3" max="3" width="19.5703125" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="21.85546875" customWidth="1"/>
+    <col min="5" max="5" width="22.140625" customWidth="1"/>
+    <col min="6" max="7" width="12.85546875" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="17.85546875" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="14.5703125" customWidth="1"/>
+    <col min="10" max="10" width="13.5703125" customWidth="1"/>
+    <col min="11" max="11" width="20.28515625" customWidth="1"/>
+    <col min="12" max="12" width="25.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A2" s="541"/>
-      <c r="B2" s="541"/>
-      <c r="C2" s="541"/>
-      <c r="D2" s="541"/>
-      <c r="E2" s="541"/>
+    <row r="2" spans="1:13" ht="14.45" x14ac:dyDescent="0.35">
+      <c r="A2" s="544"/>
+      <c r="B2" s="544"/>
+      <c r="C2" s="544"/>
+      <c r="D2" s="544"/>
+      <c r="E2" s="544"/>
       <c r="F2" s="151"/>
       <c r="G2" s="151"/>
       <c r="H2" s="151"/>
@@ -17417,7 +17444,7 @@
       <c r="K2" s="151"/>
       <c r="L2" s="151"/>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:13" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A3" s="151"/>
       <c r="B3" s="151"/>
       <c r="C3" s="151"/>
@@ -17433,13 +17460,13 @@
       <c r="K3" s="151"/>
       <c r="L3" s="151"/>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A4" s="541"/>
-      <c r="B4" s="541"/>
-      <c r="C4" s="541"/>
-      <c r="D4" s="541"/>
-      <c r="E4" s="541"/>
-      <c r="F4" s="541"/>
+    <row r="4" spans="1:13" ht="14.45" x14ac:dyDescent="0.35">
+      <c r="A4" s="544"/>
+      <c r="B4" s="544"/>
+      <c r="C4" s="544"/>
+      <c r="D4" s="544"/>
+      <c r="E4" s="544"/>
+      <c r="F4" s="544"/>
       <c r="G4" s="152"/>
       <c r="H4" s="151"/>
       <c r="I4" s="151"/>
@@ -17447,7 +17474,7 @@
       <c r="K4" s="151"/>
       <c r="L4" s="151"/>
     </row>
-    <row r="5" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:13" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A5" s="152"/>
       <c r="B5" s="152"/>
       <c r="C5" s="152"/>
@@ -17461,21 +17488,21 @@
       <c r="K5" s="151"/>
       <c r="L5" s="151"/>
     </row>
-    <row r="6" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="536"/>
-      <c r="B6" s="536"/>
-      <c r="C6" s="536"/>
-      <c r="D6" s="536"/>
-      <c r="E6" s="536"/>
-      <c r="F6" s="536"/>
-      <c r="G6" s="536"/>
-      <c r="H6" s="536"/>
-      <c r="I6" s="536"/>
-      <c r="J6" s="536"/>
-      <c r="K6" s="536"/>
-      <c r="L6" s="537"/>
-    </row>
-    <row r="7" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:13" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A6" s="539"/>
+      <c r="B6" s="539"/>
+      <c r="C6" s="539"/>
+      <c r="D6" s="539"/>
+      <c r="E6" s="539"/>
+      <c r="F6" s="539"/>
+      <c r="G6" s="539"/>
+      <c r="H6" s="539"/>
+      <c r="I6" s="539"/>
+      <c r="J6" s="539"/>
+      <c r="K6" s="539"/>
+      <c r="L6" s="540"/>
+    </row>
+    <row r="7" spans="1:13" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A7" s="153" t="s">
         <v>2</v>
       </c>
@@ -17516,7 +17543,7 @@
         <v>853</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:13" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A8" s="156" t="s">
         <v>365</v>
       </c>
@@ -17554,7 +17581,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:13" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A9" s="150" t="s">
         <v>146</v>
       </c>
@@ -17593,7 +17620,7 @@
       </c>
       <c r="M9" s="501"/>
     </row>
-    <row r="10" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:13" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A10" s="155" t="s">
         <v>369</v>
       </c>
@@ -17632,7 +17659,7 @@
       </c>
       <c r="M10" s="501"/>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:13" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A11" s="156" t="s">
         <v>372</v>
       </c>
@@ -17671,7 +17698,7 @@
       </c>
       <c r="M11" s="501"/>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:13" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A12" s="150" t="s">
         <v>146</v>
       </c>
@@ -17710,7 +17737,7 @@
       </c>
       <c r="M12" s="501"/>
     </row>
-    <row r="13" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:13" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A13" s="155" t="s">
         <v>369</v>
       </c>
@@ -17749,7 +17776,7 @@
       </c>
       <c r="M13" s="501"/>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:13" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A14" s="156" t="s">
         <v>378</v>
       </c>
@@ -17788,7 +17815,7 @@
       </c>
       <c r="M14" s="501"/>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:13" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A15" s="150" t="s">
         <v>146</v>
       </c>
@@ -17827,7 +17854,7 @@
       </c>
       <c r="M15" s="501"/>
     </row>
-    <row r="16" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:13" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A16" s="155" t="s">
         <v>369</v>
       </c>
@@ -17866,7 +17893,7 @@
       </c>
       <c r="M16" s="501"/>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:13" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A17" s="156" t="s">
         <v>384</v>
       </c>
@@ -17905,7 +17932,7 @@
       </c>
       <c r="M17" s="501"/>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:13" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A18" s="150" t="s">
         <v>146</v>
       </c>
@@ -17944,7 +17971,7 @@
       </c>
       <c r="M18" s="501"/>
     </row>
-    <row r="19" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:13" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A19" s="155" t="s">
         <v>369</v>
       </c>
@@ -17983,7 +18010,7 @@
       </c>
       <c r="M19" s="501"/>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:13" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A20" s="156" t="s">
         <v>390</v>
       </c>
@@ -18022,7 +18049,7 @@
       </c>
       <c r="M20" s="501"/>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:13" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A21" s="150" t="s">
         <v>146</v>
       </c>
@@ -18061,7 +18088,7 @@
       </c>
       <c r="M21" s="501"/>
     </row>
-    <row r="22" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:13" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A22" s="155" t="s">
         <v>369</v>
       </c>
@@ -18100,7 +18127,7 @@
       </c>
       <c r="M22" s="501"/>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:13" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A23" s="156" t="s">
         <v>396</v>
       </c>
@@ -18139,7 +18166,7 @@
       </c>
       <c r="M23" s="501"/>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:13" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A24" s="150" t="s">
         <v>146</v>
       </c>
@@ -18178,7 +18205,7 @@
       </c>
       <c r="M24" s="501"/>
     </row>
-    <row r="25" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:13" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A25" s="155" t="s">
         <v>369</v>
       </c>
@@ -18217,7 +18244,7 @@
       </c>
       <c r="M25" s="501"/>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:13" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A26" s="156" t="s">
         <v>402</v>
       </c>
@@ -18258,7 +18285,7 @@
         <v>856</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:13" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A27" s="150" t="s">
         <v>146</v>
       </c>
@@ -18299,7 +18326,7 @@
         <v>856</v>
       </c>
     </row>
-    <row r="28" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:13" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A28" s="155" t="s">
         <v>369</v>
       </c>
@@ -18340,7 +18367,7 @@
         <v>856</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:13" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A29" s="156" t="s">
         <v>408</v>
       </c>
@@ -18379,7 +18406,7 @@
       </c>
       <c r="M29" s="501"/>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:13" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A30" s="150" t="s">
         <v>146</v>
       </c>
@@ -18418,7 +18445,7 @@
       </c>
       <c r="M30" s="501"/>
     </row>
-    <row r="31" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:13" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A31" s="155" t="s">
         <v>369</v>
       </c>
@@ -18457,7 +18484,7 @@
       </c>
       <c r="M31" s="501"/>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:13" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A32" s="156" t="s">
         <v>414</v>
       </c>
@@ -18496,7 +18523,7 @@
       </c>
       <c r="M32" s="501"/>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:13" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A33" s="150" t="s">
         <v>146</v>
       </c>
@@ -18535,7 +18562,7 @@
       </c>
       <c r="M33" s="501"/>
     </row>
-    <row r="34" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:13" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A34" s="155" t="s">
         <v>369</v>
       </c>
@@ -18574,7 +18601,7 @@
       </c>
       <c r="M34" s="501"/>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:13" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A35" s="156" t="s">
         <v>420</v>
       </c>
@@ -18613,7 +18640,7 @@
       </c>
       <c r="M35" s="501"/>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:13" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A36" s="150" t="s">
         <v>146</v>
       </c>
@@ -18652,7 +18679,7 @@
       </c>
       <c r="M36" s="501"/>
     </row>
-    <row r="37" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:13" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A37" s="155" t="s">
         <v>369</v>
       </c>
@@ -18691,7 +18718,7 @@
       </c>
       <c r="M37" s="501"/>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:13" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A38" s="156" t="s">
         <v>426</v>
       </c>
@@ -18730,7 +18757,7 @@
       </c>
       <c r="M38" s="501"/>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:13" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A39" s="150" t="s">
         <v>146</v>
       </c>
@@ -18769,7 +18796,7 @@
       </c>
       <c r="M39" s="501"/>
     </row>
-    <row r="40" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:13" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A40" s="155" t="s">
         <v>369</v>
       </c>
@@ -18808,7 +18835,7 @@
       </c>
       <c r="M40" s="501"/>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:13" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A41" s="156" t="s">
         <v>432</v>
       </c>
@@ -18847,7 +18874,7 @@
       </c>
       <c r="M41" s="501"/>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:13" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A42" s="150" t="s">
         <v>146</v>
       </c>
@@ -18886,7 +18913,7 @@
       </c>
       <c r="M42" s="501"/>
     </row>
-    <row r="43" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:13" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A43" s="155" t="s">
         <v>369</v>
       </c>
@@ -18925,7 +18952,7 @@
       </c>
       <c r="M43" s="501"/>
     </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A44" s="156" t="s">
         <v>438</v>
       </c>
@@ -18964,7 +18991,7 @@
       </c>
       <c r="M44" s="501"/>
     </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A45" s="150" t="s">
         <v>146</v>
       </c>
@@ -19003,7 +19030,7 @@
       </c>
       <c r="M45" s="501"/>
     </row>
-    <row r="46" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" s="155" t="s">
         <v>369</v>
       </c>
@@ -19042,7 +19069,7 @@
       </c>
       <c r="M46" s="501"/>
     </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A47" s="156" t="s">
         <v>444</v>
       </c>
@@ -19081,7 +19108,7 @@
       </c>
       <c r="M47" s="501"/>
     </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A48" s="150" t="s">
         <v>146</v>
       </c>
@@ -19120,7 +19147,7 @@
       </c>
       <c r="M48" s="501"/>
     </row>
-    <row r="49" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49" s="155" t="s">
         <v>369</v>
       </c>
@@ -19159,7 +19186,7 @@
       </c>
       <c r="M49" s="501"/>
     </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A50" s="156" t="s">
         <v>450</v>
       </c>
@@ -19198,7 +19225,7 @@
       </c>
       <c r="M50" s="501"/>
     </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A51" s="150" t="s">
         <v>146</v>
       </c>
@@ -19237,7 +19264,7 @@
       </c>
       <c r="M51" s="501"/>
     </row>
-    <row r="52" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A52" s="155" t="s">
         <v>369</v>
       </c>
@@ -19276,7 +19303,7 @@
       </c>
       <c r="M52" s="501"/>
     </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A53" s="156" t="s">
         <v>456</v>
       </c>
@@ -19315,7 +19342,7 @@
       </c>
       <c r="M53" s="501"/>
     </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A54" s="150" t="s">
         <v>146</v>
       </c>
@@ -19354,7 +19381,7 @@
       </c>
       <c r="M54" s="501"/>
     </row>
-    <row r="55" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A55" s="155" t="s">
         <v>369</v>
       </c>
@@ -19393,7 +19420,7 @@
       </c>
       <c r="M55" s="501"/>
     </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A56" s="156" t="s">
         <v>462</v>
       </c>
@@ -19432,7 +19459,7 @@
       </c>
       <c r="M56" s="501"/>
     </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A57" s="150" t="s">
         <v>146</v>
       </c>
@@ -19471,7 +19498,7 @@
       </c>
       <c r="M57" s="501"/>
     </row>
-    <row r="58" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="58" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A58" s="155" t="s">
         <v>369</v>
       </c>
@@ -19510,7 +19537,7 @@
       </c>
       <c r="M58" s="501"/>
     </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A59" s="156" t="s">
         <v>468</v>
       </c>
@@ -19549,7 +19576,7 @@
       </c>
       <c r="M59" s="501"/>
     </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A60" s="150" t="s">
         <v>146</v>
       </c>
@@ -19588,7 +19615,7 @@
       </c>
       <c r="M60" s="501"/>
     </row>
-    <row r="61" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A61" s="155" t="s">
         <v>369</v>
       </c>
@@ -19627,7 +19654,7 @@
       </c>
       <c r="M61" s="501"/>
     </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A62" s="156" t="s">
         <v>474</v>
       </c>
@@ -19666,7 +19693,7 @@
       </c>
       <c r="M62" s="501"/>
     </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A63" s="150" t="s">
         <v>146</v>
       </c>
@@ -19705,7 +19732,7 @@
       </c>
       <c r="M63" s="501"/>
     </row>
-    <row r="64" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="64" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A64" s="155" t="s">
         <v>369</v>
       </c>
@@ -19744,7 +19771,7 @@
       </c>
       <c r="M64" s="501"/>
     </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A65" s="156" t="s">
         <v>480</v>
       </c>
@@ -19783,7 +19810,7 @@
       </c>
       <c r="M65" s="501"/>
     </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A66" s="150" t="s">
         <v>146</v>
       </c>
@@ -19822,7 +19849,7 @@
       </c>
       <c r="M66" s="501"/>
     </row>
-    <row r="67" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="67" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A67" s="155" t="s">
         <v>369</v>
       </c>
@@ -19861,7 +19888,7 @@
       </c>
       <c r="M67" s="501"/>
     </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A68" s="156" t="s">
         <v>486</v>
       </c>
@@ -19900,7 +19927,7 @@
       </c>
       <c r="M68" s="501"/>
     </row>
-    <row r="69" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A69" s="150" t="s">
         <v>146</v>
       </c>
@@ -19939,7 +19966,7 @@
       </c>
       <c r="M69" s="501"/>
     </row>
-    <row r="70" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="70" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A70" s="155" t="s">
         <v>369</v>
       </c>
@@ -19978,7 +20005,7 @@
       </c>
       <c r="M70" s="501"/>
     </row>
-    <row r="71" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A71" s="156" t="s">
         <v>492</v>
       </c>
@@ -20017,7 +20044,7 @@
       </c>
       <c r="M71" s="501"/>
     </row>
-    <row r="72" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A72" s="150" t="s">
         <v>146</v>
       </c>
@@ -20056,7 +20083,7 @@
       </c>
       <c r="M72" s="501"/>
     </row>
-    <row r="73" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="73" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A73" s="155" t="s">
         <v>369</v>
       </c>
@@ -20095,7 +20122,7 @@
       </c>
       <c r="M73" s="501"/>
     </row>
-    <row r="74" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A74" s="156" t="s">
         <v>498</v>
       </c>
@@ -20134,7 +20161,7 @@
       </c>
       <c r="M74" s="501"/>
     </row>
-    <row r="75" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A75" s="150" t="s">
         <v>146</v>
       </c>
@@ -20173,7 +20200,7 @@
       </c>
       <c r="M75" s="501"/>
     </row>
-    <row r="76" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="76" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A76" s="155" t="s">
         <v>369</v>
       </c>
@@ -20212,7 +20239,7 @@
       </c>
       <c r="M76" s="501"/>
     </row>
-    <row r="77" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A77" s="156" t="s">
         <v>504</v>
       </c>
@@ -20251,7 +20278,7 @@
       </c>
       <c r="M77" s="501"/>
     </row>
-    <row r="78" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A78" s="150" t="s">
         <v>146</v>
       </c>
@@ -20290,7 +20317,7 @@
       </c>
       <c r="M78" s="501"/>
     </row>
-    <row r="79" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="79" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A79" s="155" t="s">
         <v>369</v>
       </c>
@@ -20341,34 +20368,34 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:M41"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="M34" sqref="M34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.1796875" customWidth="1"/>
-    <col min="2" max="2" width="19.81640625" hidden="1" customWidth="1"/>
-    <col min="3" max="3" width="20.453125" hidden="1" customWidth="1"/>
-    <col min="4" max="5" width="23.453125" customWidth="1"/>
-    <col min="6" max="6" width="13.1796875" hidden="1" customWidth="1"/>
+    <col min="1" max="1" width="15.140625" customWidth="1"/>
+    <col min="2" max="2" width="19.85546875" hidden="1" customWidth="1"/>
+    <col min="3" max="3" width="20.42578125" hidden="1" customWidth="1"/>
+    <col min="4" max="5" width="23.42578125" customWidth="1"/>
+    <col min="6" max="6" width="13.140625" hidden="1" customWidth="1"/>
     <col min="7" max="7" width="13" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="18.7265625" hidden="1" customWidth="1"/>
-    <col min="9" max="9" width="13.81640625" customWidth="1"/>
-    <col min="10" max="10" width="14.81640625" customWidth="1"/>
-    <col min="11" max="11" width="19.26953125" customWidth="1"/>
-    <col min="12" max="12" width="25.453125" customWidth="1"/>
+    <col min="8" max="8" width="18.7109375" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="13.85546875" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" customWidth="1"/>
+    <col min="11" max="11" width="19.28515625" customWidth="1"/>
+    <col min="12" max="12" width="25.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A2" s="541"/>
-      <c r="B2" s="541"/>
-      <c r="C2" s="541"/>
-      <c r="D2" s="541"/>
-      <c r="E2" s="541"/>
+    <row r="2" spans="1:13" ht="14.45" x14ac:dyDescent="0.35">
+      <c r="A2" s="544"/>
+      <c r="B2" s="544"/>
+      <c r="C2" s="544"/>
+      <c r="D2" s="544"/>
+      <c r="E2" s="544"/>
       <c r="F2" s="166"/>
       <c r="G2" s="166"/>
       <c r="H2" s="166"/>
@@ -20377,7 +20404,7 @@
       <c r="K2" s="166"/>
       <c r="L2" s="166"/>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:13" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A3" s="166"/>
       <c r="B3" s="166"/>
       <c r="C3" s="166"/>
@@ -20393,13 +20420,13 @@
       <c r="K3" s="166"/>
       <c r="L3" s="166"/>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A4" s="541"/>
-      <c r="B4" s="541"/>
-      <c r="C4" s="541"/>
-      <c r="D4" s="541"/>
-      <c r="E4" s="541"/>
-      <c r="F4" s="541"/>
+    <row r="4" spans="1:13" ht="14.45" x14ac:dyDescent="0.35">
+      <c r="A4" s="544"/>
+      <c r="B4" s="544"/>
+      <c r="C4" s="544"/>
+      <c r="D4" s="544"/>
+      <c r="E4" s="544"/>
+      <c r="F4" s="544"/>
       <c r="G4" s="167"/>
       <c r="H4" s="166"/>
       <c r="I4" s="166"/>
@@ -20407,7 +20434,7 @@
       <c r="K4" s="166"/>
       <c r="L4" s="166"/>
     </row>
-    <row r="5" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:13" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A5" s="167"/>
       <c r="B5" s="167"/>
       <c r="C5" s="167"/>
@@ -20421,21 +20448,21 @@
       <c r="K5" s="166"/>
       <c r="L5" s="166"/>
     </row>
-    <row r="6" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="536"/>
-      <c r="B6" s="536"/>
-      <c r="C6" s="536"/>
-      <c r="D6" s="536"/>
-      <c r="E6" s="536"/>
-      <c r="F6" s="536"/>
-      <c r="G6" s="536"/>
-      <c r="H6" s="536"/>
-      <c r="I6" s="536"/>
-      <c r="J6" s="536"/>
-      <c r="K6" s="536"/>
-      <c r="L6" s="537"/>
-    </row>
-    <row r="7" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:13" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A6" s="539"/>
+      <c r="B6" s="539"/>
+      <c r="C6" s="539"/>
+      <c r="D6" s="539"/>
+      <c r="E6" s="539"/>
+      <c r="F6" s="539"/>
+      <c r="G6" s="539"/>
+      <c r="H6" s="539"/>
+      <c r="I6" s="539"/>
+      <c r="J6" s="539"/>
+      <c r="K6" s="539"/>
+      <c r="L6" s="540"/>
+    </row>
+    <row r="7" spans="1:13" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A7" s="168" t="s">
         <v>2</v>
       </c>
@@ -20476,7 +20503,7 @@
         <v>860</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:13" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A8" s="169" t="s">
         <v>510</v>
       </c>
@@ -20517,7 +20544,7 @@
         <v>856</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:13" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A9" s="169" t="s">
         <v>513</v>
       </c>
@@ -20558,7 +20585,7 @@
         <v>856</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:13" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A10" s="169" t="s">
         <v>514</v>
       </c>
@@ -20599,7 +20626,7 @@
         <v>856</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:13" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A11" s="169" t="s">
         <v>515</v>
       </c>
@@ -20640,7 +20667,7 @@
         <v>856</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:13" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A12" s="169" t="s">
         <v>516</v>
       </c>
@@ -20681,7 +20708,7 @@
         <v>856</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:13" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A13" s="169" t="s">
         <v>517</v>
       </c>
@@ -20722,7 +20749,7 @@
         <v>856</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:13" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A14" s="169" t="s">
         <v>520</v>
       </c>
@@ -20763,7 +20790,7 @@
         <v>856</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:13" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A15" s="169" t="s">
         <v>521</v>
       </c>
@@ -20801,7 +20828,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:13" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A16" s="169" t="s">
         <v>522</v>
       </c>
@@ -20842,7 +20869,7 @@
         <v>856</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:13" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A17" s="169" t="s">
         <v>523</v>
       </c>
@@ -20883,7 +20910,7 @@
         <v>856</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:13" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A18" s="169" t="s">
         <v>524</v>
       </c>
@@ -20924,7 +20951,7 @@
         <v>856</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:13" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A19" s="169" t="s">
         <v>527</v>
       </c>
@@ -20965,7 +20992,7 @@
         <v>856</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:13" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A20" s="169" t="s">
         <v>528</v>
       </c>
@@ -21003,7 +21030,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:13" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A21" s="169" t="s">
         <v>529</v>
       </c>
@@ -21041,7 +21068,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:13" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A22" s="169" t="s">
         <v>530</v>
       </c>
@@ -21079,7 +21106,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:13" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A23" s="169" t="s">
         <v>531</v>
       </c>
@@ -21117,7 +21144,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:13" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A24" s="169" t="s">
         <v>534</v>
       </c>
@@ -21155,7 +21182,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:13" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A25" s="169" t="s">
         <v>535</v>
       </c>
@@ -21193,7 +21220,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:13" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A26" s="169" t="s">
         <v>536</v>
       </c>
@@ -21231,7 +21258,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:13" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A27" s="169" t="s">
         <v>537</v>
       </c>
@@ -21269,7 +21296,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:13" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A28" s="169" t="s">
         <v>538</v>
       </c>
@@ -21307,7 +21334,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:13" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A29" s="169" t="s">
         <v>541</v>
       </c>
@@ -21345,7 +21372,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:13" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A30" s="169" t="s">
         <v>542</v>
       </c>
@@ -21383,7 +21410,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:13" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A31" s="169" t="s">
         <v>543</v>
       </c>
@@ -21421,7 +21448,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:13" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A32" s="169" t="s">
         <v>544</v>
       </c>
@@ -21459,7 +21486,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:13" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A33" s="169" t="s">
         <v>545</v>
       </c>
@@ -21497,7 +21524,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:13" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A34" s="169" t="s">
         <v>548</v>
       </c>
@@ -21538,7 +21565,7 @@
         <v>856</v>
       </c>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:13" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A35" s="169" t="s">
         <v>549</v>
       </c>
@@ -21576,7 +21603,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:13" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A36" s="169" t="s">
         <v>550</v>
       </c>
@@ -21614,7 +21641,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:13" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A37" s="169" t="s">
         <v>551</v>
       </c>
@@ -21652,7 +21679,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:13" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A38" s="172"/>
       <c r="B38" s="161"/>
       <c r="C38" s="161"/>
@@ -21666,7 +21693,7 @@
       <c r="K38" s="158"/>
       <c r="L38" s="158"/>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A39" s="173"/>
       <c r="B39" s="161"/>
       <c r="C39" s="161"/>
@@ -21680,7 +21707,7 @@
       <c r="K39" s="158"/>
       <c r="L39" s="158"/>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A40" s="165"/>
       <c r="B40" s="161"/>
       <c r="C40" s="161"/>
@@ -21694,7 +21721,7 @@
       <c r="K40" s="158"/>
       <c r="L40" s="158"/>
     </row>
-    <row r="41" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="171"/>
       <c r="B41" s="162"/>
       <c r="C41" s="162"/>
@@ -21720,30 +21747,30 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="N12" sqref="N12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="20.453125" customWidth="1"/>
-    <col min="3" max="3" width="20.26953125" hidden="1" customWidth="1"/>
-    <col min="4" max="4" width="19.1796875" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="22.26953125" customWidth="1"/>
-    <col min="6" max="6" width="20.54296875" customWidth="1"/>
-    <col min="7" max="7" width="13.81640625" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="13.453125" hidden="1" customWidth="1"/>
+    <col min="2" max="2" width="20.42578125" customWidth="1"/>
+    <col min="3" max="3" width="20.28515625" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="19.140625" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="22.28515625" customWidth="1"/>
+    <col min="6" max="6" width="20.5703125" customWidth="1"/>
+    <col min="7" max="7" width="13.85546875" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="13.42578125" hidden="1" customWidth="1"/>
     <col min="9" max="9" width="19" hidden="1" customWidth="1"/>
     <col min="10" max="10" width="15" customWidth="1"/>
-    <col min="11" max="11" width="15.26953125" customWidth="1"/>
-    <col min="12" max="12" width="18.453125" customWidth="1"/>
-    <col min="13" max="13" width="25.81640625" customWidth="1"/>
+    <col min="11" max="11" width="15.28515625" customWidth="1"/>
+    <col min="12" max="12" width="18.42578125" customWidth="1"/>
+    <col min="13" max="13" width="25.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:14" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A1" s="175"/>
       <c r="B1" s="175"/>
       <c r="C1" s="175"/>
@@ -21758,13 +21785,13 @@
       <c r="L1" s="175"/>
       <c r="M1" s="175"/>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A2" s="541"/>
-      <c r="B2" s="541"/>
-      <c r="C2" s="541"/>
-      <c r="D2" s="541"/>
-      <c r="E2" s="541"/>
-      <c r="F2" s="541"/>
+    <row r="2" spans="1:14" ht="14.45" x14ac:dyDescent="0.35">
+      <c r="A2" s="544"/>
+      <c r="B2" s="544"/>
+      <c r="C2" s="544"/>
+      <c r="D2" s="544"/>
+      <c r="E2" s="544"/>
+      <c r="F2" s="544"/>
       <c r="G2" s="189"/>
       <c r="H2" s="189"/>
       <c r="I2" s="189"/>
@@ -21773,7 +21800,7 @@
       <c r="L2" s="189"/>
       <c r="M2" s="189"/>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:14" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A3" s="189"/>
       <c r="B3" s="189"/>
       <c r="C3" s="189"/>
@@ -21788,14 +21815,14 @@
       <c r="L3" s="189"/>
       <c r="M3" s="189"/>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A4" s="541"/>
-      <c r="B4" s="541"/>
-      <c r="C4" s="541"/>
-      <c r="D4" s="541"/>
-      <c r="E4" s="541"/>
-      <c r="F4" s="541"/>
-      <c r="G4" s="541"/>
+    <row r="4" spans="1:14" ht="14.45" x14ac:dyDescent="0.35">
+      <c r="A4" s="544"/>
+      <c r="B4" s="544"/>
+      <c r="C4" s="544"/>
+      <c r="D4" s="544"/>
+      <c r="E4" s="544"/>
+      <c r="F4" s="544"/>
+      <c r="G4" s="544"/>
       <c r="H4" s="190"/>
       <c r="I4" s="189"/>
       <c r="J4" s="189"/>
@@ -21803,12 +21830,12 @@
       <c r="L4" s="189"/>
       <c r="M4" s="189"/>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A5" s="543" t="s">
+    <row r="5" spans="1:14" ht="14.45" x14ac:dyDescent="0.35">
+      <c r="A5" s="546" t="s">
         <v>552</v>
       </c>
-      <c r="B5" s="543"/>
-      <c r="C5" s="543"/>
+      <c r="B5" s="546"/>
+      <c r="C5" s="546"/>
       <c r="D5" s="175"/>
       <c r="E5" s="177" t="s">
         <v>553</v>
@@ -21822,7 +21849,7 @@
       <c r="L5" s="175"/>
       <c r="M5" s="175"/>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:14" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A6" s="175"/>
       <c r="B6" s="177"/>
       <c r="C6" s="175"/>
@@ -21839,13 +21866,13 @@
       <c r="L6" s="175"/>
       <c r="M6" s="175"/>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A7" s="543" t="s">
+    <row r="7" spans="1:14" ht="14.45" x14ac:dyDescent="0.35">
+      <c r="A7" s="546" t="s">
         <v>554</v>
       </c>
-      <c r="B7" s="543"/>
-      <c r="C7" s="543"/>
-      <c r="D7" s="543"/>
+      <c r="B7" s="546"/>
+      <c r="C7" s="546"/>
+      <c r="D7" s="546"/>
       <c r="E7" s="178"/>
       <c r="F7" s="175"/>
       <c r="G7" s="175"/>
@@ -21856,7 +21883,7 @@
       <c r="L7" s="175"/>
       <c r="M7" s="175"/>
     </row>
-    <row r="8" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:14" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A8" s="178"/>
       <c r="B8" s="178"/>
       <c r="C8" s="178"/>
@@ -21871,22 +21898,22 @@
       <c r="L8" s="175"/>
       <c r="M8" s="175"/>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A9" s="544"/>
-      <c r="B9" s="545"/>
-      <c r="C9" s="545"/>
-      <c r="D9" s="545"/>
-      <c r="E9" s="545"/>
-      <c r="F9" s="545"/>
-      <c r="G9" s="545"/>
-      <c r="H9" s="545"/>
-      <c r="I9" s="546"/>
+    <row r="9" spans="1:14" ht="14.45" x14ac:dyDescent="0.35">
+      <c r="A9" s="547"/>
+      <c r="B9" s="548"/>
+      <c r="C9" s="548"/>
+      <c r="D9" s="548"/>
+      <c r="E9" s="548"/>
+      <c r="F9" s="548"/>
+      <c r="G9" s="548"/>
+      <c r="H9" s="548"/>
+      <c r="I9" s="549"/>
       <c r="J9" s="175"/>
       <c r="K9" s="175"/>
       <c r="L9" s="175"/>
       <c r="M9" s="175"/>
     </row>
-    <row r="10" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:14" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A10" s="203"/>
       <c r="B10" s="183" t="s">
         <v>2</v>
@@ -21928,7 +21955,7 @@
         <v>853</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:14" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A11" s="174"/>
       <c r="B11" s="192"/>
       <c r="C11" s="180"/>
@@ -21943,7 +21970,7 @@
       <c r="L11" s="196"/>
       <c r="M11" s="197"/>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:14" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A12" s="174"/>
       <c r="B12" s="193" t="s">
         <v>559</v>
@@ -21985,7 +22012,7 @@
         <v>856</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:14" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A13" s="174"/>
       <c r="B13" s="191"/>
       <c r="C13" s="205"/>
@@ -22000,7 +22027,7 @@
       <c r="L13" s="181"/>
       <c r="M13" s="182"/>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:14" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A14" s="174"/>
       <c r="B14" s="198"/>
       <c r="C14" s="176"/>
@@ -22015,7 +22042,7 @@
       <c r="L14" s="176"/>
       <c r="M14" s="195"/>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:14" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A15" s="174"/>
       <c r="B15" s="194" t="s">
         <v>562</v>
@@ -22057,7 +22084,7 @@
         <v>856</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:14" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A16" s="174"/>
       <c r="B16" s="194" t="s">
         <v>563</v>
@@ -22113,35 +22140,35 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:M36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="M38" sqref="M38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.81640625" customWidth="1"/>
+    <col min="1" max="1" width="14.85546875" customWidth="1"/>
     <col min="2" max="2" width="20" hidden="1" customWidth="1"/>
-    <col min="3" max="3" width="20.54296875" hidden="1" customWidth="1"/>
+    <col min="3" max="3" width="20.5703125" hidden="1" customWidth="1"/>
     <col min="4" max="4" width="23" customWidth="1"/>
-    <col min="5" max="5" width="22.1796875" customWidth="1"/>
+    <col min="5" max="5" width="22.140625" customWidth="1"/>
     <col min="6" max="7" width="13" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="18.1796875" hidden="1" customWidth="1"/>
-    <col min="9" max="9" width="13.81640625" customWidth="1"/>
-    <col min="10" max="10" width="13.54296875" customWidth="1"/>
-    <col min="11" max="11" width="19.54296875" customWidth="1"/>
-    <col min="12" max="12" width="25.54296875" customWidth="1"/>
-    <col min="13" max="13" width="36.1796875" customWidth="1"/>
+    <col min="8" max="8" width="18.140625" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="13.85546875" customWidth="1"/>
+    <col min="10" max="10" width="13.5703125" customWidth="1"/>
+    <col min="11" max="11" width="19.5703125" customWidth="1"/>
+    <col min="12" max="12" width="25.5703125" customWidth="1"/>
+    <col min="13" max="13" width="36.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A2" s="541"/>
-      <c r="B2" s="541"/>
-      <c r="C2" s="541"/>
-      <c r="D2" s="541"/>
-      <c r="E2" s="541"/>
+    <row r="2" spans="1:13" ht="14.45" x14ac:dyDescent="0.35">
+      <c r="A2" s="544"/>
+      <c r="B2" s="544"/>
+      <c r="C2" s="544"/>
+      <c r="D2" s="544"/>
+      <c r="E2" s="544"/>
       <c r="F2" s="230"/>
       <c r="G2" s="230"/>
       <c r="H2" s="230"/>
@@ -22150,7 +22177,7 @@
       <c r="K2" s="230"/>
       <c r="L2" s="230"/>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:13" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A3" s="230"/>
       <c r="B3" s="230"/>
       <c r="C3" s="230"/>
@@ -22166,13 +22193,13 @@
       <c r="K3" s="230"/>
       <c r="L3" s="230"/>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A4" s="541"/>
-      <c r="B4" s="541"/>
-      <c r="C4" s="541"/>
-      <c r="D4" s="541"/>
-      <c r="E4" s="541"/>
-      <c r="F4" s="541"/>
+    <row r="4" spans="1:13" ht="14.45" x14ac:dyDescent="0.35">
+      <c r="A4" s="544"/>
+      <c r="B4" s="544"/>
+      <c r="C4" s="544"/>
+      <c r="D4" s="544"/>
+      <c r="E4" s="544"/>
+      <c r="F4" s="544"/>
       <c r="G4" s="231"/>
       <c r="H4" s="230"/>
       <c r="I4" s="230"/>
@@ -22180,7 +22207,7 @@
       <c r="K4" s="230"/>
       <c r="L4" s="230"/>
     </row>
-    <row r="5" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:13" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A5" s="231"/>
       <c r="B5" s="231"/>
       <c r="C5" s="231"/>
@@ -22194,21 +22221,21 @@
       <c r="K5" s="230"/>
       <c r="L5" s="230"/>
     </row>
-    <row r="6" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="536"/>
-      <c r="B6" s="536"/>
-      <c r="C6" s="536"/>
-      <c r="D6" s="536"/>
-      <c r="E6" s="536"/>
-      <c r="F6" s="536"/>
-      <c r="G6" s="536"/>
-      <c r="H6" s="536"/>
-      <c r="I6" s="536"/>
-      <c r="J6" s="536"/>
-      <c r="K6" s="536"/>
-      <c r="L6" s="537"/>
-    </row>
-    <row r="7" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:13" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A6" s="539"/>
+      <c r="B6" s="539"/>
+      <c r="C6" s="539"/>
+      <c r="D6" s="539"/>
+      <c r="E6" s="539"/>
+      <c r="F6" s="539"/>
+      <c r="G6" s="539"/>
+      <c r="H6" s="539"/>
+      <c r="I6" s="539"/>
+      <c r="J6" s="539"/>
+      <c r="K6" s="539"/>
+      <c r="L6" s="540"/>
+    </row>
+    <row r="7" spans="1:13" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A7" s="239" t="s">
         <v>2</v>
       </c>
@@ -22249,7 +22276,7 @@
         <v>853</v>
       </c>
     </row>
-    <row r="8" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:13" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A8" s="241" t="s">
         <v>564</v>
       </c>
@@ -22331,7 +22358,7 @@
         <v>861</v>
       </c>
     </row>
-    <row r="10" spans="1:13" ht="25" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:13" ht="24.95" x14ac:dyDescent="0.35">
       <c r="A10" s="233" t="s">
         <v>568</v>
       </c>
@@ -22372,7 +22399,7 @@
         <v>862</v>
       </c>
     </row>
-    <row r="11" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:13" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A11" s="242" t="s">
         <v>570</v>
       </c>
@@ -22454,7 +22481,7 @@
         <v>864</v>
       </c>
     </row>
-    <row r="13" spans="1:13" ht="26.5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:13" ht="26.45" x14ac:dyDescent="0.35">
       <c r="A13" s="238" t="s">
         <v>574</v>
       </c>
@@ -22495,7 +22522,7 @@
         <v>868</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:13" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A14" s="227" t="s">
         <v>575</v>
       </c>
@@ -22536,7 +22563,7 @@
         <v>868</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:13" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A15" s="243" t="s">
         <v>576</v>
       </c>
@@ -22577,7 +22604,7 @@
         <v>869</v>
       </c>
     </row>
-    <row r="16" spans="1:13" ht="26.5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:13" ht="26.45" x14ac:dyDescent="0.35">
       <c r="A16" s="238" t="s">
         <v>577</v>
       </c>
@@ -22618,7 +22645,7 @@
         <v>868</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:13" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A17" s="227" t="s">
         <v>578</v>
       </c>
@@ -22659,7 +22686,7 @@
         <v>868</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:13" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A18" s="227" t="s">
         <v>579</v>
       </c>
@@ -22700,7 +22727,7 @@
         <v>865</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:13" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A19" s="233" t="s">
         <v>580</v>
       </c>
@@ -22782,7 +22809,7 @@
         <v>868</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:13" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A21" s="233" t="s">
         <v>582</v>
       </c>
@@ -22820,7 +22847,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:13" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A22" s="233" t="s">
         <v>585</v>
       </c>
@@ -22858,7 +22885,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:13" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A23" s="233" t="s">
         <v>586</v>
       </c>
@@ -22896,7 +22923,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="24" spans="1:13" ht="25" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:13" ht="24.95" x14ac:dyDescent="0.35">
       <c r="A24" s="233" t="s">
         <v>587</v>
       </c>
@@ -22978,7 +23005,7 @@
         <v>898</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:13" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A26" s="233" t="s">
         <v>591</v>
       </c>
@@ -23019,7 +23046,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27" s="233" t="s">
         <v>592</v>
       </c>
@@ -23060,7 +23087,7 @@
         <v>867</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28" s="233" t="s">
         <v>593</v>
       </c>
@@ -23101,7 +23128,7 @@
         <v>865</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29" s="233" t="s">
         <v>594</v>
       </c>
@@ -23142,7 +23169,7 @@
         <v>897</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30" s="233" t="s">
         <v>595</v>
       </c>
@@ -23183,7 +23210,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="31" spans="1:13" ht="39" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:13" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A31" s="235" t="s">
         <v>596</v>
       </c>
@@ -23224,7 +23251,7 @@
         <v>899</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A32" s="233" t="s">
         <v>591</v>
       </c>
@@ -23265,7 +23292,7 @@
         <v>865</v>
       </c>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A33" s="233" t="s">
         <v>592</v>
       </c>
@@ -23306,7 +23333,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A34" s="233" t="s">
         <v>593</v>
       </c>
@@ -23347,7 +23374,7 @@
         <v>865</v>
       </c>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A35" s="233" t="s">
         <v>594</v>
       </c>
@@ -23388,7 +23415,7 @@
         <v>897</v>
       </c>
     </row>
-    <row r="36" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="234" t="s">
         <v>595</v>
       </c>
@@ -23441,30 +23468,30 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q29"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="M12" sqref="M12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18" customWidth="1"/>
-    <col min="2" max="2" width="19.81640625" hidden="1" customWidth="1"/>
-    <col min="3" max="3" width="20.1796875" hidden="1" customWidth="1"/>
+    <col min="2" max="2" width="19.85546875" hidden="1" customWidth="1"/>
+    <col min="3" max="3" width="20.140625" hidden="1" customWidth="1"/>
     <col min="4" max="4" width="26" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="22.1796875" customWidth="1"/>
-    <col min="6" max="6" width="12.7265625" customWidth="1"/>
-    <col min="7" max="7" width="12.54296875" customWidth="1"/>
-    <col min="8" max="8" width="18.81640625" customWidth="1"/>
-    <col min="9" max="9" width="14.81640625" customWidth="1"/>
-    <col min="10" max="10" width="13.7265625" customWidth="1"/>
-    <col min="11" max="11" width="18.453125" customWidth="1"/>
-    <col min="12" max="12" width="26.1796875" customWidth="1"/>
+    <col min="5" max="5" width="22.140625" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" customWidth="1"/>
+    <col min="7" max="7" width="12.5703125" customWidth="1"/>
+    <col min="8" max="8" width="18.85546875" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" customWidth="1"/>
+    <col min="10" max="10" width="13.7109375" customWidth="1"/>
+    <col min="11" max="11" width="18.42578125" customWidth="1"/>
+    <col min="12" max="12" width="26.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:17" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A1" s="250"/>
       <c r="B1" s="250"/>
       <c r="C1" s="250"/>
@@ -23478,12 +23505,12 @@
       <c r="K1" s="250"/>
       <c r="L1" s="250"/>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A2" s="541"/>
-      <c r="B2" s="541"/>
-      <c r="C2" s="541"/>
-      <c r="D2" s="541"/>
-      <c r="E2" s="541"/>
+    <row r="2" spans="1:17" ht="14.45" x14ac:dyDescent="0.35">
+      <c r="A2" s="544"/>
+      <c r="B2" s="544"/>
+      <c r="C2" s="544"/>
+      <c r="D2" s="544"/>
+      <c r="E2" s="544"/>
       <c r="F2" s="263"/>
       <c r="G2" s="263"/>
       <c r="H2" s="263"/>
@@ -23492,7 +23519,7 @@
       <c r="K2" s="263"/>
       <c r="L2" s="263"/>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:17" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A3" s="263"/>
       <c r="B3" s="263"/>
       <c r="C3" s="263"/>
@@ -23508,13 +23535,13 @@
       <c r="K3" s="263"/>
       <c r="L3" s="263"/>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A4" s="541"/>
-      <c r="B4" s="541"/>
-      <c r="C4" s="541"/>
-      <c r="D4" s="541"/>
-      <c r="E4" s="541"/>
-      <c r="F4" s="541"/>
+    <row r="4" spans="1:17" ht="14.45" x14ac:dyDescent="0.35">
+      <c r="A4" s="544"/>
+      <c r="B4" s="544"/>
+      <c r="C4" s="544"/>
+      <c r="D4" s="544"/>
+      <c r="E4" s="544"/>
+      <c r="F4" s="544"/>
       <c r="G4" s="264"/>
       <c r="H4" s="263"/>
       <c r="I4" s="263"/>
@@ -23522,7 +23549,7 @@
       <c r="K4" s="263"/>
       <c r="L4" s="263"/>
     </row>
-    <row r="5" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:17" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A5" s="264"/>
       <c r="B5" s="264"/>
       <c r="C5" s="264"/>
@@ -23536,21 +23563,21 @@
       <c r="K5" s="263"/>
       <c r="L5" s="263"/>
     </row>
-    <row r="6" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="536"/>
-      <c r="B6" s="536"/>
-      <c r="C6" s="536"/>
-      <c r="D6" s="536"/>
-      <c r="E6" s="536"/>
-      <c r="F6" s="536"/>
-      <c r="G6" s="536"/>
-      <c r="H6" s="536"/>
-      <c r="I6" s="536"/>
-      <c r="J6" s="536"/>
-      <c r="K6" s="536"/>
-      <c r="L6" s="537"/>
-    </row>
-    <row r="7" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:17" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A6" s="539"/>
+      <c r="B6" s="539"/>
+      <c r="C6" s="539"/>
+      <c r="D6" s="539"/>
+      <c r="E6" s="539"/>
+      <c r="F6" s="539"/>
+      <c r="G6" s="539"/>
+      <c r="H6" s="539"/>
+      <c r="I6" s="539"/>
+      <c r="J6" s="539"/>
+      <c r="K6" s="539"/>
+      <c r="L6" s="540"/>
+    </row>
+    <row r="7" spans="1:17" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A7" s="267" t="s">
         <v>2</v>
       </c>
@@ -23591,7 +23618,7 @@
         <v>853</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:17" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A8" s="269"/>
       <c r="B8" s="261"/>
       <c r="C8" s="261"/>
@@ -23605,7 +23632,7 @@
       <c r="K8" s="258"/>
       <c r="L8" s="259"/>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:17" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A9" s="262"/>
       <c r="B9" s="253"/>
       <c r="C9" s="253"/>
@@ -23619,7 +23646,7 @@
       <c r="K9" s="255"/>
       <c r="L9" s="256"/>
     </row>
-    <row r="10" spans="1:17" ht="26" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:17" ht="26.1" x14ac:dyDescent="0.35">
       <c r="A10" s="266" t="s">
         <v>597</v>
       </c>
@@ -23706,14 +23733,14 @@
       <c r="P11" s="18"/>
       <c r="Q11" s="18"/>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:17" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A13" s="252"/>
       <c r="B13" s="252"/>
       <c r="C13" s="252"/>
       <c r="D13" s="252"/>
       <c r="E13" s="252"/>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:17" ht="14.45" x14ac:dyDescent="0.35">
       <c r="E14" s="252"/>
       <c r="F14" s="252"/>
       <c r="G14" s="252" t="s">
@@ -23723,7 +23750,7 @@
         <v>823</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:17" ht="14.45" x14ac:dyDescent="0.35">
       <c r="E15" s="519" t="s">
         <v>819</v>
       </c>
@@ -23735,7 +23762,7 @@
       </c>
       <c r="H15" s="252"/>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:17" ht="14.45" x14ac:dyDescent="0.35">
       <c r="E16" s="252"/>
       <c r="F16" s="520">
         <v>0</v>
@@ -23747,7 +23774,7 @@
         <v>826</v>
       </c>
     </row>
-    <row r="17" spans="5:8" x14ac:dyDescent="0.35">
+    <row r="17" spans="5:8" ht="14.45" x14ac:dyDescent="0.35">
       <c r="E17" s="252"/>
       <c r="F17" s="520">
         <v>1</v>
@@ -23759,7 +23786,7 @@
         <v>843</v>
       </c>
     </row>
-    <row r="18" spans="5:8" x14ac:dyDescent="0.35">
+    <row r="18" spans="5:8" ht="14.45" x14ac:dyDescent="0.35">
       <c r="E18" s="252"/>
       <c r="F18" s="520">
         <v>2</v>
@@ -23771,7 +23798,7 @@
         <v>829</v>
       </c>
     </row>
-    <row r="19" spans="5:8" x14ac:dyDescent="0.35">
+    <row r="19" spans="5:8" ht="14.45" x14ac:dyDescent="0.35">
       <c r="E19" s="252"/>
       <c r="F19" s="520">
         <v>3</v>
@@ -23783,7 +23810,7 @@
         <v>831</v>
       </c>
     </row>
-    <row r="20" spans="5:8" x14ac:dyDescent="0.35">
+    <row r="20" spans="5:8" ht="14.45" x14ac:dyDescent="0.35">
       <c r="E20" s="252"/>
       <c r="F20" s="520">
         <v>4</v>
@@ -23795,7 +23822,7 @@
         <v>844</v>
       </c>
     </row>
-    <row r="21" spans="5:8" x14ac:dyDescent="0.35">
+    <row r="21" spans="5:8" ht="14.45" x14ac:dyDescent="0.35">
       <c r="E21" s="252"/>
       <c r="F21" s="520">
         <v>5</v>
@@ -23807,7 +23834,7 @@
         <v>833</v>
       </c>
     </row>
-    <row r="22" spans="5:8" x14ac:dyDescent="0.35">
+    <row r="22" spans="5:8" ht="14.45" x14ac:dyDescent="0.35">
       <c r="E22" s="252"/>
       <c r="F22" s="520">
         <v>6</v>
@@ -23819,7 +23846,7 @@
         <v>845</v>
       </c>
     </row>
-    <row r="23" spans="5:8" x14ac:dyDescent="0.35">
+    <row r="23" spans="5:8" ht="14.45" x14ac:dyDescent="0.35">
       <c r="E23" s="252"/>
       <c r="F23" s="520">
         <v>7</v>
@@ -23831,7 +23858,7 @@
         <v>846</v>
       </c>
     </row>
-    <row r="24" spans="5:8" x14ac:dyDescent="0.35">
+    <row r="24" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E24" s="252"/>
       <c r="F24" s="520">
         <v>8</v>
@@ -23843,7 +23870,7 @@
         <v>847</v>
       </c>
     </row>
-    <row r="25" spans="5:8" x14ac:dyDescent="0.35">
+    <row r="25" spans="5:8" ht="14.45" x14ac:dyDescent="0.35">
       <c r="E25" s="252"/>
       <c r="F25" s="520">
         <v>9</v>
@@ -23855,7 +23882,7 @@
         <v>838</v>
       </c>
     </row>
-    <row r="26" spans="5:8" x14ac:dyDescent="0.35">
+    <row r="26" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E26" s="252"/>
       <c r="F26" s="520">
         <v>10</v>
@@ -23867,7 +23894,7 @@
         <v>848</v>
       </c>
     </row>
-    <row r="27" spans="5:8" x14ac:dyDescent="0.35">
+    <row r="27" spans="5:8" ht="14.45" x14ac:dyDescent="0.35">
       <c r="E27" s="252"/>
       <c r="F27" s="520">
         <v>11</v>
@@ -23879,7 +23906,7 @@
         <v>840</v>
       </c>
     </row>
-    <row r="28" spans="5:8" x14ac:dyDescent="0.35">
+    <row r="28" spans="5:8" ht="14.45" x14ac:dyDescent="0.35">
       <c r="E28" s="252"/>
       <c r="F28" s="520">
         <v>12</v>
@@ -23891,7 +23918,7 @@
         <v>849</v>
       </c>
     </row>
-    <row r="29" spans="5:8" x14ac:dyDescent="0.35">
+    <row r="29" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E29" s="252"/>
       <c r="F29" s="520">
         <v>13</v>
